--- a/RGB_img_corpus_one/0.3.dataStadictist/Estadisticas_descarga7_RGB_Vector.xlsx
+++ b/RGB_img_corpus_one/0.3.dataStadictist/Estadisticas_descarga7_RGB_Vector.xlsx
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,10 +453,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>766</v>
+        <v>25500</v>
       </c>
       <c r="B2">
-        <v>191.5</v>
+        <v>255</v>
       </c>
       <c r="C2">
         <v>255</v>
@@ -465,22 +465,22 @@
         <v>255</v>
       </c>
       <c r="E2">
-        <v>16129</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="I2">
         <v>255</v>
       </c>
       <c r="J2">
-        <v>191.5</v>
+        <v>255</v>
       </c>
       <c r="K2">
         <v>255</v>
@@ -491,37 +491,37 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>988</v>
+        <v>25500</v>
       </c>
       <c r="B3">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C3">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D3">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="E3">
-        <v>85.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>9.237604307034012</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="I3">
         <v>255</v>
       </c>
       <c r="J3">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="K3">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="L3">
         <v>255</v>
@@ -529,37 +529,37 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>988</v>
+        <v>25500</v>
       </c>
       <c r="B4">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C4">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D4">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="E4">
-        <v>85.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>9.237604307034012</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="I4">
         <v>255</v>
       </c>
       <c r="J4">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="K4">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="L4">
         <v>255</v>
@@ -567,39 +567,3687 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>872</v>
+        <v>25500</v>
       </c>
       <c r="B5">
+        <v>255</v>
+      </c>
+      <c r="C5">
+        <v>255</v>
+      </c>
+      <c r="D5">
+        <v>255</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>255</v>
+      </c>
+      <c r="I5">
+        <v>255</v>
+      </c>
+      <c r="J5">
+        <v>255</v>
+      </c>
+      <c r="K5">
+        <v>255</v>
+      </c>
+      <c r="L5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>25497</v>
+      </c>
+      <c r="B6">
+        <v>254.97</v>
+      </c>
+      <c r="C6">
+        <v>255</v>
+      </c>
+      <c r="D6">
+        <v>255</v>
+      </c>
+      <c r="E6">
+        <v>0.04959595959595931</v>
+      </c>
+      <c r="F6">
+        <v>0.222701503353613</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>253</v>
+      </c>
+      <c r="I6">
+        <v>255</v>
+      </c>
+      <c r="J6">
+        <v>255</v>
+      </c>
+      <c r="K6">
+        <v>255</v>
+      </c>
+      <c r="L6">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>25462</v>
+      </c>
+      <c r="B7">
+        <v>254.62</v>
+      </c>
+      <c r="C7">
+        <v>255</v>
+      </c>
+      <c r="D7">
+        <v>255</v>
+      </c>
+      <c r="E7">
+        <v>7.025858585858601</v>
+      </c>
+      <c r="F7">
+        <v>2.650633619695223</v>
+      </c>
+      <c r="G7">
+        <v>22</v>
+      </c>
+      <c r="H7">
+        <v>233</v>
+      </c>
+      <c r="I7">
+        <v>255</v>
+      </c>
+      <c r="J7">
+        <v>255</v>
+      </c>
+      <c r="K7">
+        <v>255</v>
+      </c>
+      <c r="L7">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>25328</v>
+      </c>
+      <c r="B8">
+        <v>253.28</v>
+      </c>
+      <c r="C8">
+        <v>255</v>
+      </c>
+      <c r="D8">
+        <v>255</v>
+      </c>
+      <c r="E8">
+        <v>220.6682828282825</v>
+      </c>
+      <c r="F8">
+        <v>14.85490770177595</v>
+      </c>
+      <c r="G8">
+        <v>147</v>
+      </c>
+      <c r="H8">
+        <v>108</v>
+      </c>
+      <c r="I8">
+        <v>255</v>
+      </c>
+      <c r="J8">
+        <v>255</v>
+      </c>
+      <c r="K8">
+        <v>255</v>
+      </c>
+      <c r="L8">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>25008</v>
+      </c>
+      <c r="B9">
+        <v>250.08</v>
+      </c>
+      <c r="C9">
+        <v>255</v>
+      </c>
+      <c r="D9">
+        <v>255</v>
+      </c>
+      <c r="E9">
+        <v>704.6804040404013</v>
+      </c>
+      <c r="F9">
+        <v>26.54581707238263</v>
+      </c>
+      <c r="G9">
         <v>218</v>
       </c>
-      <c r="C5">
+      <c r="H9">
+        <v>37</v>
+      </c>
+      <c r="I9">
+        <v>255</v>
+      </c>
+      <c r="J9">
+        <v>255</v>
+      </c>
+      <c r="K9">
+        <v>255</v>
+      </c>
+      <c r="L9">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>24276</v>
+      </c>
+      <c r="B10">
+        <v>242.76</v>
+      </c>
+      <c r="C10">
+        <v>255</v>
+      </c>
+      <c r="D10">
+        <v>255</v>
+      </c>
+      <c r="E10">
+        <v>2284.366060606066</v>
+      </c>
+      <c r="F10">
+        <v>47.79504221785002</v>
+      </c>
+      <c r="G10">
+        <v>255</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>255</v>
+      </c>
+      <c r="J10">
+        <v>255</v>
+      </c>
+      <c r="K10">
+        <v>255</v>
+      </c>
+      <c r="L10">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>23259</v>
+      </c>
+      <c r="B11">
+        <v>232.59</v>
+      </c>
+      <c r="C11">
+        <v>255</v>
+      </c>
+      <c r="D11">
+        <v>255</v>
+      </c>
+      <c r="E11">
+        <v>4348.527171717165</v>
+      </c>
+      <c r="F11">
+        <v>65.94336336370147</v>
+      </c>
+      <c r="G11">
+        <v>254</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>255</v>
+      </c>
+      <c r="J11">
+        <v>255</v>
+      </c>
+      <c r="K11">
+        <v>255</v>
+      </c>
+      <c r="L11">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>22222</v>
+      </c>
+      <c r="B12">
+        <v>222.22</v>
+      </c>
+      <c r="C12">
+        <v>255</v>
+      </c>
+      <c r="D12">
+        <v>255</v>
+      </c>
+      <c r="E12">
+        <v>6573.001616161599</v>
+      </c>
+      <c r="F12">
+        <v>81.07405020203196</v>
+      </c>
+      <c r="G12">
+        <v>255</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>255</v>
+      </c>
+      <c r="J12">
+        <v>255</v>
+      </c>
+      <c r="K12">
+        <v>255</v>
+      </c>
+      <c r="L12">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>21468</v>
+      </c>
+      <c r="B13">
+        <v>214.68</v>
+      </c>
+      <c r="C13">
+        <v>255</v>
+      </c>
+      <c r="D13">
+        <v>255</v>
+      </c>
+      <c r="E13">
+        <v>8002.886464646448</v>
+      </c>
+      <c r="F13">
+        <v>89.4588534726801</v>
+      </c>
+      <c r="G13">
+        <v>255</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>255</v>
+      </c>
+      <c r="J13">
+        <v>255</v>
+      </c>
+      <c r="K13">
+        <v>255</v>
+      </c>
+      <c r="L13">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>21347</v>
+      </c>
+      <c r="B14">
+        <v>213.47</v>
+      </c>
+      <c r="C14">
+        <v>255</v>
+      </c>
+      <c r="D14">
+        <v>255</v>
+      </c>
+      <c r="E14">
+        <v>8423.908181818168</v>
+      </c>
+      <c r="F14">
+        <v>91.78185104811391</v>
+      </c>
+      <c r="G14">
+        <v>255</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>255</v>
+      </c>
+      <c r="J14">
+        <v>255</v>
+      </c>
+      <c r="K14">
+        <v>255</v>
+      </c>
+      <c r="L14">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>21278</v>
+      </c>
+      <c r="B15">
+        <v>212.78</v>
+      </c>
+      <c r="C15">
+        <v>255</v>
+      </c>
+      <c r="D15">
+        <v>255</v>
+      </c>
+      <c r="E15">
+        <v>8445.668282828259</v>
+      </c>
+      <c r="F15">
+        <v>91.90031709862735</v>
+      </c>
+      <c r="G15">
+        <v>255</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>255</v>
+      </c>
+      <c r="J15">
+        <v>255</v>
+      </c>
+      <c r="K15">
+        <v>255</v>
+      </c>
+      <c r="L15">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>21200</v>
+      </c>
+      <c r="B16">
+        <v>212</v>
+      </c>
+      <c r="C16">
+        <v>255</v>
+      </c>
+      <c r="D16">
+        <v>255</v>
+      </c>
+      <c r="E16">
+        <v>8762.585858585859</v>
+      </c>
+      <c r="F16">
+        <v>93.6086847391088</v>
+      </c>
+      <c r="G16">
+        <v>255</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>255</v>
+      </c>
+      <c r="J16">
+        <v>255</v>
+      </c>
+      <c r="K16">
+        <v>255</v>
+      </c>
+      <c r="L16">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
+        <v>21258</v>
+      </c>
+      <c r="B17">
+        <v>212.58</v>
+      </c>
+      <c r="C17">
+        <v>255</v>
+      </c>
+      <c r="D17">
+        <v>255</v>
+      </c>
+      <c r="E17">
+        <v>8547.195555555569</v>
+      </c>
+      <c r="F17">
+        <v>92.45104410203039</v>
+      </c>
+      <c r="G17">
+        <v>255</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>255</v>
+      </c>
+      <c r="J17">
+        <v>255</v>
+      </c>
+      <c r="K17">
+        <v>255</v>
+      </c>
+      <c r="L17">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
+        <v>21268</v>
+      </c>
+      <c r="B18">
+        <v>212.68</v>
+      </c>
+      <c r="C18">
+        <v>255</v>
+      </c>
+      <c r="D18">
+        <v>255</v>
+      </c>
+      <c r="E18">
+        <v>8454.219797979789</v>
+      </c>
+      <c r="F18">
+        <v>91.94683136454344</v>
+      </c>
+      <c r="G18">
+        <v>255</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>255</v>
+      </c>
+      <c r="J18">
+        <v>255</v>
+      </c>
+      <c r="K18">
+        <v>255</v>
+      </c>
+      <c r="L18">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
+        <v>21192</v>
+      </c>
+      <c r="B19">
+        <v>211.92</v>
+      </c>
+      <c r="C19">
+        <v>255</v>
+      </c>
+      <c r="D19">
+        <v>255</v>
+      </c>
+      <c r="E19">
+        <v>8903.710707070686</v>
+      </c>
+      <c r="F19">
+        <v>94.35947597920776</v>
+      </c>
+      <c r="G19">
+        <v>255</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>255</v>
+      </c>
+      <c r="J19">
+        <v>255</v>
+      </c>
+      <c r="K19">
+        <v>255</v>
+      </c>
+      <c r="L19">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
+        <v>21206</v>
+      </c>
+      <c r="B20">
+        <v>212.06</v>
+      </c>
+      <c r="C20">
+        <v>255</v>
+      </c>
+      <c r="D20">
+        <v>255</v>
+      </c>
+      <c r="E20">
+        <v>8827.875151515162</v>
+      </c>
+      <c r="F20">
+        <v>93.95677278150396</v>
+      </c>
+      <c r="G20">
+        <v>255</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>255</v>
+      </c>
+      <c r="J20">
+        <v>255</v>
+      </c>
+      <c r="K20">
+        <v>255</v>
+      </c>
+      <c r="L20">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21">
+        <v>21277</v>
+      </c>
+      <c r="B21">
+        <v>212.77</v>
+      </c>
+      <c r="C21">
+        <v>255</v>
+      </c>
+      <c r="D21">
+        <v>255</v>
+      </c>
+      <c r="E21">
+        <v>8446.623333333313</v>
+      </c>
+      <c r="F21">
+        <v>91.9055130736634</v>
+      </c>
+      <c r="G21">
+        <v>254</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>255</v>
+      </c>
+      <c r="J21">
+        <v>255</v>
+      </c>
+      <c r="K21">
+        <v>255</v>
+      </c>
+      <c r="L21">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>21285</v>
+      </c>
+      <c r="B22">
+        <v>212.85</v>
+      </c>
+      <c r="C22">
+        <v>255</v>
+      </c>
+      <c r="D22">
+        <v>255</v>
+      </c>
+      <c r="E22">
+        <v>8498.916666666695</v>
+      </c>
+      <c r="F22">
+        <v>92.18956918581785</v>
+      </c>
+      <c r="G22">
+        <v>255</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>255</v>
+      </c>
+      <c r="J22">
+        <v>255</v>
+      </c>
+      <c r="K22">
+        <v>255</v>
+      </c>
+      <c r="L22">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23">
+        <v>21308</v>
+      </c>
+      <c r="B23">
+        <v>213.08</v>
+      </c>
+      <c r="C23">
+        <v>255</v>
+      </c>
+      <c r="D23">
+        <v>255</v>
+      </c>
+      <c r="E23">
+        <v>8662.23595959595</v>
+      </c>
+      <c r="F23">
+        <v>93.07113386864881</v>
+      </c>
+      <c r="G23">
+        <v>255</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>255</v>
+      </c>
+      <c r="J23">
+        <v>255</v>
+      </c>
+      <c r="K23">
+        <v>255</v>
+      </c>
+      <c r="L23">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>21346</v>
+      </c>
+      <c r="B24">
+        <v>213.46</v>
+      </c>
+      <c r="C24">
+        <v>255</v>
+      </c>
+      <c r="D24">
+        <v>255</v>
+      </c>
+      <c r="E24">
+        <v>8596.614545454557</v>
+      </c>
+      <c r="F24">
+        <v>92.71793001062177</v>
+      </c>
+      <c r="G24">
+        <v>255</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>255</v>
+      </c>
+      <c r="J24">
+        <v>255</v>
+      </c>
+      <c r="K24">
+        <v>255</v>
+      </c>
+      <c r="L24">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>21462</v>
+      </c>
+      <c r="B25">
+        <v>214.62</v>
+      </c>
+      <c r="C25">
+        <v>255</v>
+      </c>
+      <c r="D25">
+        <v>255</v>
+      </c>
+      <c r="E25">
+        <v>8180.157171717177</v>
+      </c>
+      <c r="F25">
+        <v>90.44422132849161</v>
+      </c>
+      <c r="G25">
+        <v>255</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>255</v>
+      </c>
+      <c r="J25">
+        <v>255</v>
+      </c>
+      <c r="K25">
+        <v>255</v>
+      </c>
+      <c r="L25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26">
+        <v>21131</v>
+      </c>
+      <c r="B26">
+        <v>211.31</v>
+      </c>
+      <c r="C26">
+        <v>255</v>
+      </c>
+      <c r="D26">
+        <v>255</v>
+      </c>
+      <c r="E26">
+        <v>8008.317070707089</v>
+      </c>
+      <c r="F26">
+        <v>89.48920086081387</v>
+      </c>
+      <c r="G26">
+        <v>255</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>255</v>
+      </c>
+      <c r="J26">
+        <v>237.5</v>
+      </c>
+      <c r="K26">
+        <v>255</v>
+      </c>
+      <c r="L26">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27">
+        <v>18490</v>
+      </c>
+      <c r="B27">
+        <v>184.9</v>
+      </c>
+      <c r="C27">
+        <v>255</v>
+      </c>
+      <c r="D27">
+        <v>255</v>
+      </c>
+      <c r="E27">
+        <v>11201.44444444445</v>
+      </c>
+      <c r="F27">
+        <v>105.8368765811069</v>
+      </c>
+      <c r="G27">
+        <v>255</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>255</v>
+      </c>
+      <c r="J27">
+        <v>74.5</v>
+      </c>
+      <c r="K27">
+        <v>255</v>
+      </c>
+      <c r="L27">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28">
+        <v>18234</v>
+      </c>
+      <c r="B28">
+        <v>182.34</v>
+      </c>
+      <c r="C28">
+        <v>255</v>
+      </c>
+      <c r="D28">
+        <v>255</v>
+      </c>
+      <c r="E28">
+        <v>10742.4690909091</v>
+      </c>
+      <c r="F28">
+        <v>103.6458831353619</v>
+      </c>
+      <c r="G28">
+        <v>255</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>255</v>
+      </c>
+      <c r="J28">
+        <v>89.25</v>
+      </c>
+      <c r="K28">
+        <v>255</v>
+      </c>
+      <c r="L28">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29">
+        <v>19837</v>
+      </c>
+      <c r="B29">
+        <v>198.37</v>
+      </c>
+      <c r="C29">
+        <v>255</v>
+      </c>
+      <c r="D29">
+        <v>255</v>
+      </c>
+      <c r="E29">
+        <v>9509.265757575755</v>
+      </c>
+      <c r="F29">
+        <v>97.51546419709929</v>
+      </c>
+      <c r="G29">
+        <v>255</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>255</v>
+      </c>
+      <c r="J29">
+        <v>202.5</v>
+      </c>
+      <c r="K29">
+        <v>255</v>
+      </c>
+      <c r="L29">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30">
+        <v>20177</v>
+      </c>
+      <c r="B30">
+        <v>201.77</v>
+      </c>
+      <c r="C30">
+        <v>255</v>
+      </c>
+      <c r="D30">
+        <v>255</v>
+      </c>
+      <c r="E30">
+        <v>8799.330404040413</v>
+      </c>
+      <c r="F30">
+        <v>93.80474617011878</v>
+      </c>
+      <c r="G30">
+        <v>255</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>255</v>
+      </c>
+      <c r="J30">
+        <v>219.75</v>
+      </c>
+      <c r="K30">
+        <v>255</v>
+      </c>
+      <c r="L30">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31">
+        <v>20364</v>
+      </c>
+      <c r="B31">
+        <v>203.64</v>
+      </c>
+      <c r="C31">
+        <v>255</v>
+      </c>
+      <c r="D31">
+        <v>255</v>
+      </c>
+      <c r="E31">
+        <v>8518.798383838379</v>
+      </c>
+      <c r="F31">
+        <v>92.29733681877489</v>
+      </c>
+      <c r="G31">
+        <v>255</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>255</v>
+      </c>
+      <c r="J31">
+        <v>239</v>
+      </c>
+      <c r="K31">
+        <v>255</v>
+      </c>
+      <c r="L31">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32">
+        <v>20811</v>
+      </c>
+      <c r="B32">
+        <v>208.11</v>
+      </c>
+      <c r="C32">
+        <v>255</v>
+      </c>
+      <c r="D32">
+        <v>255</v>
+      </c>
+      <c r="E32">
+        <v>7537.755454545446</v>
+      </c>
+      <c r="F32">
+        <v>86.82024795256834</v>
+      </c>
+      <c r="G32">
+        <v>254</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>255</v>
+      </c>
+      <c r="J32">
+        <v>239</v>
+      </c>
+      <c r="K32">
+        <v>255</v>
+      </c>
+      <c r="L32">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33">
+        <v>21610</v>
+      </c>
+      <c r="B33">
+        <v>216.1</v>
+      </c>
+      <c r="C33">
+        <v>255</v>
+      </c>
+      <c r="D33">
+        <v>255</v>
+      </c>
+      <c r="E33">
+        <v>6111.606060606046</v>
+      </c>
+      <c r="F33">
+        <v>78.17676164056712</v>
+      </c>
+      <c r="G33">
+        <v>255</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>255</v>
+      </c>
+      <c r="J33">
+        <v>239</v>
+      </c>
+      <c r="K33">
+        <v>255</v>
+      </c>
+      <c r="L33">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34">
+        <v>22425</v>
+      </c>
+      <c r="B34">
+        <v>224.25</v>
+      </c>
+      <c r="C34">
+        <v>255</v>
+      </c>
+      <c r="D34">
+        <v>255</v>
+      </c>
+      <c r="E34">
+        <v>4393.320707070707</v>
+      </c>
+      <c r="F34">
+        <v>66.28212962081641</v>
+      </c>
+      <c r="G34">
+        <v>255</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>255</v>
+      </c>
+      <c r="J34">
+        <v>239</v>
+      </c>
+      <c r="K34">
+        <v>255</v>
+      </c>
+      <c r="L34">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35">
+        <v>22410</v>
+      </c>
+      <c r="B35">
+        <v>224.1</v>
+      </c>
+      <c r="C35">
+        <v>254.5</v>
+      </c>
+      <c r="D35">
+        <v>255</v>
+      </c>
+      <c r="E35">
+        <v>4305.020202020203</v>
+      </c>
+      <c r="F35">
+        <v>65.61265275859682</v>
+      </c>
+      <c r="G35">
+        <v>255</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>255</v>
+      </c>
+      <c r="J35">
+        <v>239</v>
+      </c>
+      <c r="K35">
+        <v>254.5</v>
+      </c>
+      <c r="L35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36">
+        <v>22706</v>
+      </c>
+      <c r="B36">
+        <v>227.06</v>
+      </c>
+      <c r="C36">
+        <v>248</v>
+      </c>
+      <c r="D36">
+        <v>255</v>
+      </c>
+      <c r="E36">
+        <v>3830.602424242425</v>
+      </c>
+      <c r="F36">
+        <v>61.89186072693585</v>
+      </c>
+      <c r="G36">
+        <v>255</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>255</v>
+      </c>
+      <c r="J36">
+        <v>239</v>
+      </c>
+      <c r="K36">
+        <v>248</v>
+      </c>
+      <c r="L36">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37">
+        <v>23030</v>
+      </c>
+      <c r="B37">
+        <v>230.3</v>
+      </c>
+      <c r="C37">
+        <v>242.5</v>
+      </c>
+      <c r="D37">
+        <v>255</v>
+      </c>
+      <c r="E37">
+        <v>3481.161616161623</v>
+      </c>
+      <c r="F37">
+        <v>59.0013696125914</v>
+      </c>
+      <c r="G37">
+        <v>255</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>255</v>
+      </c>
+      <c r="J37">
+        <v>239</v>
+      </c>
+      <c r="K37">
+        <v>242.5</v>
+      </c>
+      <c r="L37">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38">
+        <v>23109</v>
+      </c>
+      <c r="B38">
+        <v>231.09</v>
+      </c>
+      <c r="C38">
+        <v>240</v>
+      </c>
+      <c r="D38">
+        <v>255</v>
+      </c>
+      <c r="E38">
+        <v>3060.123131313138</v>
+      </c>
+      <c r="F38">
+        <v>55.31837968806695</v>
+      </c>
+      <c r="G38">
+        <v>255</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>255</v>
+      </c>
+      <c r="J38">
+        <v>239</v>
+      </c>
+      <c r="K38">
+        <v>240</v>
+      </c>
+      <c r="L38">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39">
+        <v>23077</v>
+      </c>
+      <c r="B39">
+        <v>230.77</v>
+      </c>
+      <c r="C39">
+        <v>242</v>
+      </c>
+      <c r="D39">
+        <v>255</v>
+      </c>
+      <c r="E39">
+        <v>3075.310202020201</v>
+      </c>
+      <c r="F39">
+        <v>55.45547945893355</v>
+      </c>
+      <c r="G39">
+        <v>255</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>255</v>
+      </c>
+      <c r="J39">
+        <v>239</v>
+      </c>
+      <c r="K39">
+        <v>242</v>
+      </c>
+      <c r="L39">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40">
+        <v>22915</v>
+      </c>
+      <c r="B40">
+        <v>229.15</v>
+      </c>
+      <c r="C40">
+        <v>239</v>
+      </c>
+      <c r="D40">
+        <v>255</v>
+      </c>
+      <c r="E40">
+        <v>2766.371212121206</v>
+      </c>
+      <c r="F40">
+        <v>52.59630416789003</v>
+      </c>
+      <c r="G40">
+        <v>248</v>
+      </c>
+      <c r="H40">
+        <v>7</v>
+      </c>
+      <c r="I40">
+        <v>255</v>
+      </c>
+      <c r="J40">
+        <v>239</v>
+      </c>
+      <c r="K40">
+        <v>239</v>
+      </c>
+      <c r="L40">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41">
+        <v>23727</v>
+      </c>
+      <c r="B41">
+        <v>237.27</v>
+      </c>
+      <c r="C41">
+        <v>240</v>
+      </c>
+      <c r="D41">
+        <v>255</v>
+      </c>
+      <c r="E41">
+        <v>1535.289999999999</v>
+      </c>
+      <c r="F41">
+        <v>39.1827768286016</v>
+      </c>
+      <c r="G41">
+        <v>223</v>
+      </c>
+      <c r="H41">
+        <v>32</v>
+      </c>
+      <c r="I41">
+        <v>255</v>
+      </c>
+      <c r="J41">
+        <v>239</v>
+      </c>
+      <c r="K41">
+        <v>240</v>
+      </c>
+      <c r="L41">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42">
+        <v>24022</v>
+      </c>
+      <c r="B42">
+        <v>240.22</v>
+      </c>
+      <c r="C42">
+        <v>242</v>
+      </c>
+      <c r="D42">
+        <v>255</v>
+      </c>
+      <c r="E42">
+        <v>1544.132929292929</v>
+      </c>
+      <c r="F42">
+        <v>39.29545685308836</v>
+      </c>
+      <c r="G42">
+        <v>255</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>255</v>
+      </c>
+      <c r="J42">
+        <v>239</v>
+      </c>
+      <c r="K42">
+        <v>242</v>
+      </c>
+      <c r="L42">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43">
+        <v>24057</v>
+      </c>
+      <c r="B43">
+        <v>240.57</v>
+      </c>
+      <c r="C43">
+        <v>239</v>
+      </c>
+      <c r="D43">
+        <v>239</v>
+      </c>
+      <c r="E43">
+        <v>1301.782929292929</v>
+      </c>
+      <c r="F43">
+        <v>36.08022906375358</v>
+      </c>
+      <c r="G43">
+        <v>255</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>255</v>
+      </c>
+      <c r="J43">
+        <v>239</v>
+      </c>
+      <c r="K43">
+        <v>239</v>
+      </c>
+      <c r="L43">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44">
+        <v>24110</v>
+      </c>
+      <c r="B44">
+        <v>241.1</v>
+      </c>
+      <c r="C44">
+        <v>239</v>
+      </c>
+      <c r="D44">
+        <v>239</v>
+      </c>
+      <c r="E44">
+        <v>1149.222222222225</v>
+      </c>
+      <c r="F44">
+        <v>33.90018026828508</v>
+      </c>
+      <c r="G44">
+        <v>255</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>255</v>
+      </c>
+      <c r="J44">
+        <v>239</v>
+      </c>
+      <c r="K44">
+        <v>239</v>
+      </c>
+      <c r="L44">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45">
+        <v>24150</v>
+      </c>
+      <c r="B45">
+        <v>241.5</v>
+      </c>
+      <c r="C45">
+        <v>239</v>
+      </c>
+      <c r="D45">
+        <v>239</v>
+      </c>
+      <c r="E45">
+        <v>968.1717171717172</v>
+      </c>
+      <c r="F45">
+        <v>31.11545784930244</v>
+      </c>
+      <c r="G45">
+        <v>255</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>255</v>
+      </c>
+      <c r="J45">
+        <v>239</v>
+      </c>
+      <c r="K45">
+        <v>239</v>
+      </c>
+      <c r="L45">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46">
+        <v>24167</v>
+      </c>
+      <c r="B46">
+        <v>241.67</v>
+      </c>
+      <c r="C46">
+        <v>239</v>
+      </c>
+      <c r="D46">
+        <v>239</v>
+      </c>
+      <c r="E46">
+        <v>909.7990909090892</v>
+      </c>
+      <c r="F46">
+        <v>30.16287603841996</v>
+      </c>
+      <c r="G46">
+        <v>255</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>255</v>
+      </c>
+      <c r="J46">
+        <v>239</v>
+      </c>
+      <c r="K46">
+        <v>239</v>
+      </c>
+      <c r="L46">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47">
+        <v>24181</v>
+      </c>
+      <c r="B47">
+        <v>241.81</v>
+      </c>
+      <c r="C47">
+        <v>239</v>
+      </c>
+      <c r="D47">
+        <v>239</v>
+      </c>
+      <c r="E47">
+        <v>835.4483838383848</v>
+      </c>
+      <c r="F47">
+        <v>28.90412399361698</v>
+      </c>
+      <c r="G47">
+        <v>251</v>
+      </c>
+      <c r="H47">
+        <v>4</v>
+      </c>
+      <c r="I47">
+        <v>255</v>
+      </c>
+      <c r="J47">
+        <v>239</v>
+      </c>
+      <c r="K47">
+        <v>239</v>
+      </c>
+      <c r="L47">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48">
+        <v>24184</v>
+      </c>
+      <c r="B48">
+        <v>241.84</v>
+      </c>
+      <c r="C48">
+        <v>239</v>
+      </c>
+      <c r="D48">
+        <v>239</v>
+      </c>
+      <c r="E48">
+        <v>809.6105050505043</v>
+      </c>
+      <c r="F48">
+        <v>28.45365538995832</v>
+      </c>
+      <c r="G48">
+        <v>248</v>
+      </c>
+      <c r="H48">
+        <v>7</v>
+      </c>
+      <c r="I48">
+        <v>255</v>
+      </c>
+      <c r="J48">
+        <v>239</v>
+      </c>
+      <c r="K48">
+        <v>239</v>
+      </c>
+      <c r="L48">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49">
+        <v>24181</v>
+      </c>
+      <c r="B49">
+        <v>241.81</v>
+      </c>
+      <c r="C49">
+        <v>239</v>
+      </c>
+      <c r="D49">
+        <v>239</v>
+      </c>
+      <c r="E49">
+        <v>813.6302020202028</v>
+      </c>
+      <c r="F49">
+        <v>28.524203792923</v>
+      </c>
+      <c r="G49">
+        <v>248</v>
+      </c>
+      <c r="H49">
+        <v>7</v>
+      </c>
+      <c r="I49">
+        <v>255</v>
+      </c>
+      <c r="J49">
+        <v>239</v>
+      </c>
+      <c r="K49">
+        <v>239</v>
+      </c>
+      <c r="L49">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50">
+        <v>24179</v>
+      </c>
+      <c r="B50">
+        <v>241.79</v>
+      </c>
+      <c r="C50">
+        <v>239</v>
+      </c>
+      <c r="D50">
+        <v>239</v>
+      </c>
+      <c r="E50">
+        <v>823.5817171717189</v>
+      </c>
+      <c r="F50">
+        <v>28.69811347757408</v>
+      </c>
+      <c r="G50">
+        <v>250</v>
+      </c>
+      <c r="H50">
+        <v>5</v>
+      </c>
+      <c r="I50">
+        <v>255</v>
+      </c>
+      <c r="J50">
+        <v>239</v>
+      </c>
+      <c r="K50">
+        <v>239</v>
+      </c>
+      <c r="L50">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51">
+        <v>24184</v>
+      </c>
+      <c r="B51">
+        <v>241.84</v>
+      </c>
+      <c r="C51">
+        <v>239</v>
+      </c>
+      <c r="D51">
+        <v>239</v>
+      </c>
+      <c r="E51">
+        <v>836.2165656565656</v>
+      </c>
+      <c r="F51">
+        <v>28.91740938702092</v>
+      </c>
+      <c r="G51">
+        <v>255</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>255</v>
+      </c>
+      <c r="J51">
+        <v>239</v>
+      </c>
+      <c r="K51">
+        <v>239</v>
+      </c>
+      <c r="L51">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52">
+        <v>24200</v>
+      </c>
+      <c r="B52">
+        <v>242</v>
+      </c>
+      <c r="C52">
+        <v>239</v>
+      </c>
+      <c r="D52">
+        <v>239</v>
+      </c>
+      <c r="E52">
+        <v>816.2020202020202</v>
+      </c>
+      <c r="F52">
+        <v>28.56924955615776</v>
+      </c>
+      <c r="G52">
+        <v>255</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>255</v>
+      </c>
+      <c r="J52">
+        <v>239</v>
+      </c>
+      <c r="K52">
+        <v>239</v>
+      </c>
+      <c r="L52">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53">
+        <v>24188</v>
+      </c>
+      <c r="B53">
+        <v>241.88</v>
+      </c>
+      <c r="C53">
+        <v>239</v>
+      </c>
+      <c r="D53">
+        <v>239</v>
+      </c>
+      <c r="E53">
+        <v>830.9349494949477</v>
+      </c>
+      <c r="F53">
+        <v>28.82594230020846</v>
+      </c>
+      <c r="G53">
+        <v>255</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>255</v>
+      </c>
+      <c r="J53">
+        <v>239</v>
+      </c>
+      <c r="K53">
+        <v>239</v>
+      </c>
+      <c r="L53">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54">
+        <v>24166</v>
+      </c>
+      <c r="B54">
+        <v>241.66</v>
+      </c>
+      <c r="C54">
+        <v>239</v>
+      </c>
+      <c r="D54">
+        <v>239</v>
+      </c>
+      <c r="E54">
+        <v>892.8529292929297</v>
+      </c>
+      <c r="F54">
+        <v>29.88064472686173</v>
+      </c>
+      <c r="G54">
+        <v>255</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>255</v>
+      </c>
+      <c r="J54">
+        <v>239</v>
+      </c>
+      <c r="K54">
+        <v>239</v>
+      </c>
+      <c r="L54">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55">
+        <v>24092</v>
+      </c>
+      <c r="B55">
+        <v>240.92</v>
+      </c>
+      <c r="C55">
+        <v>239</v>
+      </c>
+      <c r="D55">
+        <v>239</v>
+      </c>
+      <c r="E55">
+        <v>1080.862222222222</v>
+      </c>
+      <c r="F55">
+        <v>32.87646912644699</v>
+      </c>
+      <c r="G55">
+        <v>255</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>255</v>
+      </c>
+      <c r="J55">
+        <v>239</v>
+      </c>
+      <c r="K55">
+        <v>239</v>
+      </c>
+      <c r="L55">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56">
+        <v>24058</v>
+      </c>
+      <c r="B56">
+        <v>240.58</v>
+      </c>
+      <c r="C56">
+        <v>239</v>
+      </c>
+      <c r="D56">
+        <v>239</v>
+      </c>
+      <c r="E56">
+        <v>1236.20565656566</v>
+      </c>
+      <c r="F56">
+        <v>35.1597163891528</v>
+      </c>
+      <c r="G56">
+        <v>246</v>
+      </c>
+      <c r="H56">
+        <v>9</v>
+      </c>
+      <c r="I56">
+        <v>255</v>
+      </c>
+      <c r="J56">
+        <v>239</v>
+      </c>
+      <c r="K56">
+        <v>239</v>
+      </c>
+      <c r="L56">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57">
+        <v>24093</v>
+      </c>
+      <c r="B57">
+        <v>240.93</v>
+      </c>
+      <c r="C57">
+        <v>239</v>
+      </c>
+      <c r="D57">
+        <v>239</v>
+      </c>
+      <c r="E57">
+        <v>1142.67181818182</v>
+      </c>
+      <c r="F57">
+        <v>33.80342908910011</v>
+      </c>
+      <c r="G57">
+        <v>217</v>
+      </c>
+      <c r="H57">
+        <v>38</v>
+      </c>
+      <c r="I57">
+        <v>255</v>
+      </c>
+      <c r="J57">
+        <v>239</v>
+      </c>
+      <c r="K57">
+        <v>239</v>
+      </c>
+      <c r="L57">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58">
+        <v>24116</v>
+      </c>
+      <c r="B58">
+        <v>241.16</v>
+      </c>
+      <c r="C58">
+        <v>239</v>
+      </c>
+      <c r="D58">
+        <v>239</v>
+      </c>
+      <c r="E58">
+        <v>1144.357979797979</v>
+      </c>
+      <c r="F58">
+        <v>33.82836058395351</v>
+      </c>
+      <c r="G58">
+        <v>233</v>
+      </c>
+      <c r="H58">
+        <v>22</v>
+      </c>
+      <c r="I58">
+        <v>255</v>
+      </c>
+      <c r="J58">
+        <v>239</v>
+      </c>
+      <c r="K58">
+        <v>239</v>
+      </c>
+      <c r="L58">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59">
+        <v>24125</v>
+      </c>
+      <c r="B59">
+        <v>241.25</v>
+      </c>
+      <c r="C59">
+        <v>239</v>
+      </c>
+      <c r="D59">
+        <v>239</v>
+      </c>
+      <c r="E59">
+        <v>1144.815656565657</v>
+      </c>
+      <c r="F59">
+        <v>33.83512459805131</v>
+      </c>
+      <c r="G59">
+        <v>241</v>
+      </c>
+      <c r="H59">
+        <v>14</v>
+      </c>
+      <c r="I59">
+        <v>255</v>
+      </c>
+      <c r="J59">
+        <v>239</v>
+      </c>
+      <c r="K59">
+        <v>239</v>
+      </c>
+      <c r="L59">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60">
+        <v>24116</v>
+      </c>
+      <c r="B60">
+        <v>241.16</v>
+      </c>
+      <c r="C60">
+        <v>239</v>
+      </c>
+      <c r="D60">
+        <v>239</v>
+      </c>
+      <c r="E60">
+        <v>1273.125656565656</v>
+      </c>
+      <c r="F60">
+        <v>35.68088643189314</v>
+      </c>
+      <c r="G60">
+        <v>255</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>255</v>
+      </c>
+      <c r="J60">
+        <v>239</v>
+      </c>
+      <c r="K60">
+        <v>239</v>
+      </c>
+      <c r="L60">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61">
+        <v>24096</v>
+      </c>
+      <c r="B61">
+        <v>240.96</v>
+      </c>
+      <c r="C61">
+        <v>240</v>
+      </c>
+      <c r="D61">
+        <v>255</v>
+      </c>
+      <c r="E61">
+        <v>1250.624646464646</v>
+      </c>
+      <c r="F61">
+        <v>35.36417179101818</v>
+      </c>
+      <c r="G61">
+        <v>242</v>
+      </c>
+      <c r="H61">
+        <v>13</v>
+      </c>
+      <c r="I61">
+        <v>255</v>
+      </c>
+      <c r="J61">
+        <v>239</v>
+      </c>
+      <c r="K61">
+        <v>240</v>
+      </c>
+      <c r="L61">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62">
+        <v>24086</v>
+      </c>
+      <c r="B62">
+        <v>240.86</v>
+      </c>
+      <c r="C62">
+        <v>239.5</v>
+      </c>
+      <c r="D62">
+        <v>255</v>
+      </c>
+      <c r="E62">
+        <v>1109.778181818182</v>
+      </c>
+      <c r="F62">
+        <v>33.31333339397579</v>
+      </c>
+      <c r="G62">
+        <v>205</v>
+      </c>
+      <c r="H62">
+        <v>50</v>
+      </c>
+      <c r="I62">
+        <v>255</v>
+      </c>
+      <c r="J62">
+        <v>239</v>
+      </c>
+      <c r="K62">
+        <v>239.5</v>
+      </c>
+      <c r="L62">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63">
+        <v>24088</v>
+      </c>
+      <c r="B63">
+        <v>240.88</v>
+      </c>
+      <c r="C63">
+        <v>239.5</v>
+      </c>
+      <c r="D63">
+        <v>255</v>
+      </c>
+      <c r="E63">
+        <v>1033.035959595958</v>
+      </c>
+      <c r="F63">
+        <v>32.14087677080322</v>
+      </c>
+      <c r="G63">
+        <v>220</v>
+      </c>
+      <c r="H63">
+        <v>35</v>
+      </c>
+      <c r="I63">
+        <v>255</v>
+      </c>
+      <c r="J63">
+        <v>239</v>
+      </c>
+      <c r="K63">
+        <v>239.5</v>
+      </c>
+      <c r="L63">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64">
+        <v>24096</v>
+      </c>
+      <c r="B64">
+        <v>240.96</v>
+      </c>
+      <c r="C64">
+        <v>240</v>
+      </c>
+      <c r="D64">
+        <v>255</v>
+      </c>
+      <c r="E64">
+        <v>1124.644848484848</v>
+      </c>
+      <c r="F64">
+        <v>33.53572495839099</v>
+      </c>
+      <c r="G64">
+        <v>255</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>255</v>
+      </c>
+      <c r="J64">
+        <v>239</v>
+      </c>
+      <c r="K64">
+        <v>240</v>
+      </c>
+      <c r="L64">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65">
+        <v>24104</v>
+      </c>
+      <c r="B65">
+        <v>241.04</v>
+      </c>
+      <c r="C65">
+        <v>241</v>
+      </c>
+      <c r="D65">
+        <v>255</v>
+      </c>
+      <c r="E65">
+        <v>1182.725656565654</v>
+      </c>
+      <c r="F65">
+        <v>34.39077865599519</v>
+      </c>
+      <c r="G65">
+        <v>255</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>255</v>
+      </c>
+      <c r="J65">
+        <v>239</v>
+      </c>
+      <c r="K65">
+        <v>241</v>
+      </c>
+      <c r="L65">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66">
+        <v>24110</v>
+      </c>
+      <c r="B66">
+        <v>241.1</v>
+      </c>
+      <c r="C66">
+        <v>246</v>
+      </c>
+      <c r="D66">
+        <v>255</v>
+      </c>
+      <c r="E66">
+        <v>1253.828282828286</v>
+      </c>
+      <c r="F66">
+        <v>35.40943776492767</v>
+      </c>
+      <c r="G66">
+        <v>236</v>
+      </c>
+      <c r="H66">
+        <v>19</v>
+      </c>
+      <c r="I66">
+        <v>255</v>
+      </c>
+      <c r="J66">
+        <v>239</v>
+      </c>
+      <c r="K66">
+        <v>246</v>
+      </c>
+      <c r="L66">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67">
+        <v>24106</v>
+      </c>
+      <c r="B67">
+        <v>241.06</v>
+      </c>
+      <c r="C67">
         <v>247</v>
       </c>
-      <c r="D5">
-        <v>255</v>
-      </c>
-      <c r="E5">
-        <v>4068</v>
-      </c>
-      <c r="F5">
-        <v>63.7808748764079</v>
-      </c>
-      <c r="G5">
-        <v>132</v>
-      </c>
-      <c r="H5">
-        <v>123</v>
-      </c>
-      <c r="I5">
-        <v>255</v>
-      </c>
-      <c r="J5">
+      <c r="D67">
+        <v>255</v>
+      </c>
+      <c r="E67">
+        <v>1267.107474747476</v>
+      </c>
+      <c r="F67">
+        <v>35.59645312032473</v>
+      </c>
+      <c r="G67">
+        <v>241</v>
+      </c>
+      <c r="H67">
+        <v>14</v>
+      </c>
+      <c r="I67">
+        <v>255</v>
+      </c>
+      <c r="J67">
+        <v>239</v>
+      </c>
+      <c r="K67">
+        <v>247</v>
+      </c>
+      <c r="L67">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68">
+        <v>24118</v>
+      </c>
+      <c r="B68">
+        <v>241.18</v>
+      </c>
+      <c r="C68">
+        <v>253.5</v>
+      </c>
+      <c r="D68">
+        <v>255</v>
+      </c>
+      <c r="E68">
+        <v>1198.714747474747</v>
+      </c>
+      <c r="F68">
+        <v>34.6224601591907</v>
+      </c>
+      <c r="G68">
+        <v>255</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>255</v>
+      </c>
+      <c r="J68">
+        <v>239</v>
+      </c>
+      <c r="K68">
+        <v>253.5</v>
+      </c>
+      <c r="L68">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69">
+        <v>24130</v>
+      </c>
+      <c r="B69">
+        <v>241.3</v>
+      </c>
+      <c r="C69">
+        <v>254.5</v>
+      </c>
+      <c r="D69">
+        <v>255</v>
+      </c>
+      <c r="E69">
+        <v>1057.525252525254</v>
+      </c>
+      <c r="F69">
+        <v>32.51961335141077</v>
+      </c>
+      <c r="G69">
+        <v>228</v>
+      </c>
+      <c r="H69">
+        <v>27</v>
+      </c>
+      <c r="I69">
+        <v>255</v>
+      </c>
+      <c r="J69">
+        <v>239</v>
+      </c>
+      <c r="K69">
+        <v>254.5</v>
+      </c>
+      <c r="L69">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70">
+        <v>24130</v>
+      </c>
+      <c r="B70">
+        <v>241.3</v>
+      </c>
+      <c r="C70">
+        <v>255</v>
+      </c>
+      <c r="D70">
+        <v>255</v>
+      </c>
+      <c r="E70">
+        <v>1111.626262626264</v>
+      </c>
+      <c r="F70">
+        <v>33.34105971060703</v>
+      </c>
+      <c r="G70">
+        <v>197</v>
+      </c>
+      <c r="H70">
+        <v>58</v>
+      </c>
+      <c r="I70">
+        <v>255</v>
+      </c>
+      <c r="J70">
+        <v>239</v>
+      </c>
+      <c r="K70">
+        <v>255</v>
+      </c>
+      <c r="L70">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71">
+        <v>24115</v>
+      </c>
+      <c r="B71">
+        <v>241.15</v>
+      </c>
+      <c r="C71">
+        <v>255</v>
+      </c>
+      <c r="D71">
+        <v>255</v>
+      </c>
+      <c r="E71">
+        <v>1299.946969696967</v>
+      </c>
+      <c r="F71">
+        <v>36.0547773491526</v>
+      </c>
+      <c r="G71">
+        <v>255</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>255</v>
+      </c>
+      <c r="J71">
+        <v>239</v>
+      </c>
+      <c r="K71">
+        <v>255</v>
+      </c>
+      <c r="L71">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72">
+        <v>24114</v>
+      </c>
+      <c r="B72">
+        <v>241.14</v>
+      </c>
+      <c r="C72">
+        <v>255</v>
+      </c>
+      <c r="D72">
+        <v>255</v>
+      </c>
+      <c r="E72">
+        <v>1402.768080808076</v>
+      </c>
+      <c r="F72">
+        <v>37.45354563733687</v>
+      </c>
+      <c r="G72">
+        <v>255</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>255</v>
+      </c>
+      <c r="J72">
+        <v>239</v>
+      </c>
+      <c r="K72">
+        <v>255</v>
+      </c>
+      <c r="L72">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73">
+        <v>24106</v>
+      </c>
+      <c r="B73">
+        <v>241.06</v>
+      </c>
+      <c r="C73">
+        <v>255</v>
+      </c>
+      <c r="D73">
+        <v>255</v>
+      </c>
+      <c r="E73">
+        <v>1238.036767676769</v>
+      </c>
+      <c r="F73">
+        <v>35.18574665509841</v>
+      </c>
+      <c r="G73">
+        <v>201</v>
+      </c>
+      <c r="H73">
+        <v>54</v>
+      </c>
+      <c r="I73">
+        <v>255</v>
+      </c>
+      <c r="J73">
+        <v>239</v>
+      </c>
+      <c r="K73">
+        <v>255</v>
+      </c>
+      <c r="L73">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74">
+        <v>24123</v>
+      </c>
+      <c r="B74">
+        <v>241.23</v>
+      </c>
+      <c r="C74">
+        <v>255</v>
+      </c>
+      <c r="D74">
+        <v>255</v>
+      </c>
+      <c r="E74">
+        <v>1361.391010101012</v>
+      </c>
+      <c r="F74">
+        <v>36.89703253787508</v>
+      </c>
+      <c r="G74">
+        <v>255</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>255</v>
+      </c>
+      <c r="J74">
+        <v>239</v>
+      </c>
+      <c r="K74">
+        <v>255</v>
+      </c>
+      <c r="L74">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75">
+        <v>24152</v>
+      </c>
+      <c r="B75">
+        <v>241.52</v>
+      </c>
+      <c r="C75">
+        <v>255</v>
+      </c>
+      <c r="D75">
+        <v>255</v>
+      </c>
+      <c r="E75">
+        <v>1287.444040404041</v>
+      </c>
+      <c r="F75">
+        <v>35.88097044958568</v>
+      </c>
+      <c r="G75">
+        <v>247</v>
+      </c>
+      <c r="H75">
+        <v>8</v>
+      </c>
+      <c r="I75">
+        <v>255</v>
+      </c>
+      <c r="J75">
+        <v>239</v>
+      </c>
+      <c r="K75">
+        <v>255</v>
+      </c>
+      <c r="L75">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76">
+        <v>24135</v>
+      </c>
+      <c r="B76">
+        <v>241.35</v>
+      </c>
+      <c r="C76">
+        <v>255</v>
+      </c>
+      <c r="D76">
+        <v>255</v>
+      </c>
+      <c r="E76">
+        <v>1286.088383838382</v>
+      </c>
+      <c r="F76">
+        <v>35.86207444973564</v>
+      </c>
+      <c r="G76">
+        <v>223</v>
+      </c>
+      <c r="H76">
+        <v>32</v>
+      </c>
+      <c r="I76">
+        <v>255</v>
+      </c>
+      <c r="J76">
+        <v>239</v>
+      </c>
+      <c r="K76">
+        <v>255</v>
+      </c>
+      <c r="L76">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77">
+        <v>24156</v>
+      </c>
+      <c r="B77">
+        <v>241.56</v>
+      </c>
+      <c r="C77">
+        <v>255</v>
+      </c>
+      <c r="D77">
+        <v>255</v>
+      </c>
+      <c r="E77">
+        <v>1245.804444444444</v>
+      </c>
+      <c r="F77">
+        <v>35.29595507199719</v>
+      </c>
+      <c r="G77">
+        <v>254</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>255</v>
+      </c>
+      <c r="J77">
+        <v>239</v>
+      </c>
+      <c r="K77">
+        <v>255</v>
+      </c>
+      <c r="L77">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78">
+        <v>24134</v>
+      </c>
+      <c r="B78">
+        <v>241.34</v>
+      </c>
+      <c r="C78">
+        <v>255</v>
+      </c>
+      <c r="D78">
+        <v>255</v>
+      </c>
+      <c r="E78">
+        <v>1481.135757575757</v>
+      </c>
+      <c r="F78">
+        <v>38.48552659865468</v>
+      </c>
+      <c r="G78">
+        <v>252</v>
+      </c>
+      <c r="H78">
+        <v>3</v>
+      </c>
+      <c r="I78">
+        <v>255</v>
+      </c>
+      <c r="J78">
+        <v>239</v>
+      </c>
+      <c r="K78">
+        <v>255</v>
+      </c>
+      <c r="L78">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79">
+        <v>24112</v>
+      </c>
+      <c r="B79">
+        <v>241.12</v>
+      </c>
+      <c r="C79">
+        <v>255</v>
+      </c>
+      <c r="D79">
+        <v>255</v>
+      </c>
+      <c r="E79">
+        <v>1498.591515151516</v>
+      </c>
+      <c r="F79">
+        <v>38.71164573034213</v>
+      </c>
+      <c r="G79">
+        <v>255</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>255</v>
+      </c>
+      <c r="J79">
+        <v>239</v>
+      </c>
+      <c r="K79">
+        <v>255</v>
+      </c>
+      <c r="L79">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80">
+        <v>24140</v>
+      </c>
+      <c r="B80">
+        <v>241.4</v>
+      </c>
+      <c r="C80">
+        <v>255</v>
+      </c>
+      <c r="D80">
+        <v>255</v>
+      </c>
+      <c r="E80">
+        <v>1476.424242424238</v>
+      </c>
+      <c r="F80">
+        <v>38.42426632252381</v>
+      </c>
+      <c r="G80">
+        <v>252</v>
+      </c>
+      <c r="H80">
+        <v>3</v>
+      </c>
+      <c r="I80">
+        <v>255</v>
+      </c>
+      <c r="J80">
+        <v>239</v>
+      </c>
+      <c r="K80">
+        <v>255</v>
+      </c>
+      <c r="L80">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81">
+        <v>24153</v>
+      </c>
+      <c r="B81">
+        <v>241.53</v>
+      </c>
+      <c r="C81">
+        <v>255</v>
+      </c>
+      <c r="D81">
+        <v>255</v>
+      </c>
+      <c r="E81">
+        <v>1464.978888888885</v>
+      </c>
+      <c r="F81">
+        <v>38.27504263732289</v>
+      </c>
+      <c r="G81">
+        <v>245</v>
+      </c>
+      <c r="H81">
+        <v>10</v>
+      </c>
+      <c r="I81">
+        <v>255</v>
+      </c>
+      <c r="J81">
+        <v>239</v>
+      </c>
+      <c r="K81">
+        <v>255</v>
+      </c>
+      <c r="L81">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82">
+        <v>24154</v>
+      </c>
+      <c r="B82">
+        <v>241.54</v>
+      </c>
+      <c r="C82">
+        <v>255</v>
+      </c>
+      <c r="D82">
+        <v>255</v>
+      </c>
+      <c r="E82">
+        <v>1473.564040404041</v>
+      </c>
+      <c r="F82">
+        <v>38.387029585578</v>
+      </c>
+      <c r="G82">
+        <v>254</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>255</v>
+      </c>
+      <c r="J82">
+        <v>239</v>
+      </c>
+      <c r="K82">
+        <v>255</v>
+      </c>
+      <c r="L82">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83">
+        <v>24145</v>
+      </c>
+      <c r="B83">
+        <v>241.45</v>
+      </c>
+      <c r="C83">
+        <v>255</v>
+      </c>
+      <c r="D83">
+        <v>255</v>
+      </c>
+      <c r="E83">
+        <v>1579.159090909094</v>
+      </c>
+      <c r="F83">
+        <v>39.73863473886709</v>
+      </c>
+      <c r="G83">
+        <v>249</v>
+      </c>
+      <c r="H83">
+        <v>6</v>
+      </c>
+      <c r="I83">
+        <v>255</v>
+      </c>
+      <c r="J83">
+        <v>239</v>
+      </c>
+      <c r="K83">
+        <v>255</v>
+      </c>
+      <c r="L83">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84">
+        <v>24158</v>
+      </c>
+      <c r="B84">
+        <v>241.58</v>
+      </c>
+      <c r="C84">
+        <v>255</v>
+      </c>
+      <c r="D84">
+        <v>255</v>
+      </c>
+      <c r="E84">
+        <v>1537.498585858591</v>
+      </c>
+      <c r="F84">
+        <v>39.21094982091853</v>
+      </c>
+      <c r="G84">
+        <v>253</v>
+      </c>
+      <c r="H84">
+        <v>2</v>
+      </c>
+      <c r="I84">
+        <v>255</v>
+      </c>
+      <c r="J84">
+        <v>239</v>
+      </c>
+      <c r="K84">
+        <v>255</v>
+      </c>
+      <c r="L84">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85">
+        <v>24144</v>
+      </c>
+      <c r="B85">
+        <v>241.44</v>
+      </c>
+      <c r="C85">
+        <v>255</v>
+      </c>
+      <c r="D85">
+        <v>255</v>
+      </c>
+      <c r="E85">
+        <v>1706.147878787874</v>
+      </c>
+      <c r="F85">
+        <v>41.30554295476425</v>
+      </c>
+      <c r="G85">
+        <v>248</v>
+      </c>
+      <c r="H85">
+        <v>7</v>
+      </c>
+      <c r="I85">
+        <v>255</v>
+      </c>
+      <c r="J85">
+        <v>239</v>
+      </c>
+      <c r="K85">
+        <v>255</v>
+      </c>
+      <c r="L85">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86">
+        <v>24158</v>
+      </c>
+      <c r="B86">
+        <v>241.58</v>
+      </c>
+      <c r="C86">
+        <v>255</v>
+      </c>
+      <c r="D86">
+        <v>255</v>
+      </c>
+      <c r="E86">
+        <v>1545.680404040409</v>
+      </c>
+      <c r="F86">
+        <v>39.31514217245576</v>
+      </c>
+      <c r="G86">
+        <v>250</v>
+      </c>
+      <c r="H86">
+        <v>5</v>
+      </c>
+      <c r="I86">
+        <v>255</v>
+      </c>
+      <c r="J86">
+        <v>239</v>
+      </c>
+      <c r="K86">
+        <v>255</v>
+      </c>
+      <c r="L86">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87">
+        <v>24118</v>
+      </c>
+      <c r="B87">
+        <v>241.18</v>
+      </c>
+      <c r="C87">
+        <v>255</v>
+      </c>
+      <c r="D87">
+        <v>255</v>
+      </c>
+      <c r="E87">
+        <v>1855.300606060602</v>
+      </c>
+      <c r="F87">
+        <v>43.07320055510853</v>
+      </c>
+      <c r="G87">
+        <v>249</v>
+      </c>
+      <c r="H87">
+        <v>6</v>
+      </c>
+      <c r="I87">
+        <v>255</v>
+      </c>
+      <c r="J87">
+        <v>239</v>
+      </c>
+      <c r="K87">
+        <v>255</v>
+      </c>
+      <c r="L87">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88">
+        <v>24105</v>
+      </c>
+      <c r="B88">
+        <v>241.05</v>
+      </c>
+      <c r="C88">
+        <v>255</v>
+      </c>
+      <c r="D88">
+        <v>255</v>
+      </c>
+      <c r="E88">
+        <v>1833.11868686869</v>
+      </c>
+      <c r="F88">
+        <v>42.81493532482199</v>
+      </c>
+      <c r="G88">
+        <v>254</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>255</v>
+      </c>
+      <c r="J88">
+        <v>239</v>
+      </c>
+      <c r="K88">
+        <v>255</v>
+      </c>
+      <c r="L88">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89">
+        <v>24106</v>
+      </c>
+      <c r="B89">
+        <v>241.06</v>
+      </c>
+      <c r="C89">
+        <v>255</v>
+      </c>
+      <c r="D89">
+        <v>255</v>
+      </c>
+      <c r="E89">
+        <v>1760.117575757577</v>
+      </c>
+      <c r="F89">
+        <v>41.95375520448172</v>
+      </c>
+      <c r="G89">
+        <v>255</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>255</v>
+      </c>
+      <c r="J89">
+        <v>239</v>
+      </c>
+      <c r="K89">
+        <v>255</v>
+      </c>
+      <c r="L89">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90">
+        <v>24082</v>
+      </c>
+      <c r="B90">
+        <v>240.82</v>
+      </c>
+      <c r="C90">
+        <v>255</v>
+      </c>
+      <c r="D90">
+        <v>255</v>
+      </c>
+      <c r="E90">
+        <v>1828.411717171718</v>
+      </c>
+      <c r="F90">
+        <v>42.75993121102649</v>
+      </c>
+      <c r="G90">
+        <v>248</v>
+      </c>
+      <c r="H90">
+        <v>7</v>
+      </c>
+      <c r="I90">
+        <v>255</v>
+      </c>
+      <c r="J90">
+        <v>239</v>
+      </c>
+      <c r="K90">
+        <v>255</v>
+      </c>
+      <c r="L90">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91">
+        <v>24027</v>
+      </c>
+      <c r="B91">
+        <v>240.27</v>
+      </c>
+      <c r="C91">
+        <v>255</v>
+      </c>
+      <c r="D91">
+        <v>255</v>
+      </c>
+      <c r="E91">
+        <v>2270.946565656562</v>
+      </c>
+      <c r="F91">
+        <v>47.65444958927301</v>
+      </c>
+      <c r="G91">
+        <v>255</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>255</v>
+      </c>
+      <c r="J91">
+        <v>239</v>
+      </c>
+      <c r="K91">
+        <v>255</v>
+      </c>
+      <c r="L91">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92">
+        <v>23850</v>
+      </c>
+      <c r="B92">
+        <v>238.5</v>
+      </c>
+      <c r="C92">
+        <v>255</v>
+      </c>
+      <c r="D92">
+        <v>255</v>
+      </c>
+      <c r="E92">
+        <v>2337.848484848485</v>
+      </c>
+      <c r="F92">
+        <v>48.35130282472733</v>
+      </c>
+      <c r="G92">
+        <v>244</v>
+      </c>
+      <c r="H92">
+        <v>11</v>
+      </c>
+      <c r="I92">
+        <v>255</v>
+      </c>
+      <c r="J92">
+        <v>240</v>
+      </c>
+      <c r="K92">
+        <v>255</v>
+      </c>
+      <c r="L92">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93">
+        <v>23032</v>
+      </c>
+      <c r="B93">
+        <v>230.32</v>
+      </c>
+      <c r="C93">
+        <v>255</v>
+      </c>
+      <c r="D93">
+        <v>255</v>
+      </c>
+      <c r="E93">
+        <v>3624.078383838374</v>
+      </c>
+      <c r="F93">
+        <v>60.20031880180017</v>
+      </c>
+      <c r="G93">
+        <v>255</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>255</v>
+      </c>
+      <c r="J93">
+        <v>251.5</v>
+      </c>
+      <c r="K93">
+        <v>255</v>
+      </c>
+      <c r="L93">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94">
+        <v>22156</v>
+      </c>
+      <c r="B94">
+        <v>221.56</v>
+      </c>
+      <c r="C94">
+        <v>255</v>
+      </c>
+      <c r="D94">
+        <v>255</v>
+      </c>
+      <c r="E94">
+        <v>5768.996363636378</v>
+      </c>
+      <c r="F94">
+        <v>75.95390946907459</v>
+      </c>
+      <c r="G94">
+        <v>255</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>255</v>
+      </c>
+      <c r="J94">
+        <v>254.5</v>
+      </c>
+      <c r="K94">
+        <v>255</v>
+      </c>
+      <c r="L94">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95">
+        <v>23095</v>
+      </c>
+      <c r="B95">
+        <v>230.95</v>
+      </c>
+      <c r="C95">
+        <v>255</v>
+      </c>
+      <c r="D95">
+        <v>255</v>
+      </c>
+      <c r="E95">
+        <v>4138.977272727283</v>
+      </c>
+      <c r="F95">
+        <v>64.33488379353213</v>
+      </c>
+      <c r="G95">
+        <v>250</v>
+      </c>
+      <c r="H95">
+        <v>5</v>
+      </c>
+      <c r="I95">
+        <v>255</v>
+      </c>
+      <c r="J95">
+        <v>255</v>
+      </c>
+      <c r="K95">
+        <v>255</v>
+      </c>
+      <c r="L95">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96">
+        <v>24211</v>
+      </c>
+      <c r="B96">
+        <v>242.11</v>
+      </c>
+      <c r="C96">
+        <v>255</v>
+      </c>
+      <c r="D96">
+        <v>255</v>
+      </c>
+      <c r="E96">
+        <v>2228.018080808084</v>
+      </c>
+      <c r="F96">
+        <v>47.20188641154169</v>
+      </c>
+      <c r="G96">
+        <v>220</v>
+      </c>
+      <c r="H96">
+        <v>35</v>
+      </c>
+      <c r="I96">
+        <v>255</v>
+      </c>
+      <c r="J96">
+        <v>255</v>
+      </c>
+      <c r="K96">
+        <v>255</v>
+      </c>
+      <c r="L96">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97">
+        <v>25336</v>
+      </c>
+      <c r="B97">
+        <v>253.36</v>
+      </c>
+      <c r="C97">
+        <v>255</v>
+      </c>
+      <c r="D97">
+        <v>255</v>
+      </c>
+      <c r="E97">
+        <v>57.16202020202008</v>
+      </c>
+      <c r="F97">
+        <v>7.560556871158372</v>
+      </c>
+      <c r="G97">
+        <v>45</v>
+      </c>
+      <c r="H97">
         <v>210</v>
       </c>
-      <c r="K5">
-        <v>247</v>
-      </c>
-      <c r="L5">
+      <c r="I97">
+        <v>255</v>
+      </c>
+      <c r="J97">
+        <v>255</v>
+      </c>
+      <c r="K97">
+        <v>255</v>
+      </c>
+      <c r="L97">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98">
+        <v>25500</v>
+      </c>
+      <c r="B98">
+        <v>255</v>
+      </c>
+      <c r="C98">
+        <v>255</v>
+      </c>
+      <c r="D98">
+        <v>255</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>255</v>
+      </c>
+      <c r="I98">
+        <v>255</v>
+      </c>
+      <c r="J98">
+        <v>255</v>
+      </c>
+      <c r="K98">
+        <v>255</v>
+      </c>
+      <c r="L98">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99">
+        <v>25500</v>
+      </c>
+      <c r="B99">
+        <v>255</v>
+      </c>
+      <c r="C99">
+        <v>255</v>
+      </c>
+      <c r="D99">
+        <v>255</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>255</v>
+      </c>
+      <c r="I99">
+        <v>255</v>
+      </c>
+      <c r="J99">
+        <v>255</v>
+      </c>
+      <c r="K99">
+        <v>255</v>
+      </c>
+      <c r="L99">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100">
+        <v>25500</v>
+      </c>
+      <c r="B100">
+        <v>255</v>
+      </c>
+      <c r="C100">
+        <v>255</v>
+      </c>
+      <c r="D100">
+        <v>255</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>255</v>
+      </c>
+      <c r="I100">
+        <v>255</v>
+      </c>
+      <c r="J100">
+        <v>255</v>
+      </c>
+      <c r="K100">
+        <v>255</v>
+      </c>
+      <c r="L100">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101">
+        <v>25500</v>
+      </c>
+      <c r="B101">
+        <v>255</v>
+      </c>
+      <c r="C101">
+        <v>255</v>
+      </c>
+      <c r="D101">
+        <v>255</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>255</v>
+      </c>
+      <c r="I101">
+        <v>255</v>
+      </c>
+      <c r="J101">
+        <v>255</v>
+      </c>
+      <c r="K101">
+        <v>255</v>
+      </c>
+      <c r="L101">
         <v>255</v>
       </c>
     </row>

--- a/RGB_img_corpus_one/0.3.dataStadictist/Estadisticas_descarga7_RGB_Vector.xlsx
+++ b/RGB_img_corpus_one/0.3.dataStadictist/Estadisticas_descarga7_RGB_Vector.xlsx
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,7 +453,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>25500</v>
+        <v>51000</v>
       </c>
       <c r="B2">
         <v>255</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>25500</v>
+        <v>51000</v>
       </c>
       <c r="B3">
         <v>255</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>25500</v>
+        <v>51000</v>
       </c>
       <c r="B4">
         <v>255</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>25500</v>
+        <v>51000</v>
       </c>
       <c r="B5">
         <v>255</v>
@@ -605,10 +605,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>25497</v>
+        <v>51000</v>
       </c>
       <c r="B6">
-        <v>254.97</v>
+        <v>255</v>
       </c>
       <c r="C6">
         <v>255</v>
@@ -617,16 +617,16 @@
         <v>255</v>
       </c>
       <c r="E6">
-        <v>0.04959595959595931</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.222701503353613</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I6">
         <v>255</v>
@@ -643,10 +643,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
-        <v>25462</v>
+        <v>51000</v>
       </c>
       <c r="B7">
-        <v>254.62</v>
+        <v>255</v>
       </c>
       <c r="C7">
         <v>255</v>
@@ -655,16 +655,16 @@
         <v>255</v>
       </c>
       <c r="E7">
-        <v>7.025858585858601</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>2.650633619695223</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="I7">
         <v>255</v>
@@ -681,10 +681,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
-        <v>25328</v>
+        <v>51000</v>
       </c>
       <c r="B8">
-        <v>253.28</v>
+        <v>255</v>
       </c>
       <c r="C8">
         <v>255</v>
@@ -693,16 +693,16 @@
         <v>255</v>
       </c>
       <c r="E8">
-        <v>220.6682828282825</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>14.85490770177595</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>108</v>
+        <v>255</v>
       </c>
       <c r="I8">
         <v>255</v>
@@ -719,10 +719,10 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
-        <v>25008</v>
+        <v>51000</v>
       </c>
       <c r="B9">
-        <v>250.08</v>
+        <v>255</v>
       </c>
       <c r="C9">
         <v>255</v>
@@ -731,16 +731,16 @@
         <v>255</v>
       </c>
       <c r="E9">
-        <v>704.6804040404013</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>26.54581707238263</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="I9">
         <v>255</v>
@@ -757,10 +757,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10">
-        <v>24276</v>
+        <v>50998</v>
       </c>
       <c r="B10">
-        <v>242.76</v>
+        <v>254.99</v>
       </c>
       <c r="C10">
         <v>255</v>
@@ -769,16 +769,16 @@
         <v>255</v>
       </c>
       <c r="E10">
-        <v>2284.366060606066</v>
+        <v>0.01999999999999996</v>
       </c>
       <c r="F10">
-        <v>47.79504221785002</v>
+        <v>0.1414213562373094</v>
       </c>
       <c r="G10">
-        <v>255</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="I10">
         <v>255</v>
@@ -795,10 +795,10 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11">
-        <v>23259</v>
+        <v>50987</v>
       </c>
       <c r="B11">
-        <v>232.59</v>
+        <v>254.935</v>
       </c>
       <c r="C11">
         <v>255</v>
@@ -807,16 +807,16 @@
         <v>255</v>
       </c>
       <c r="E11">
-        <v>4348.527171717165</v>
+        <v>0.7243969849246168</v>
       </c>
       <c r="F11">
-        <v>65.94336336370147</v>
+        <v>0.8511151419899758</v>
       </c>
       <c r="G11">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>243</v>
       </c>
       <c r="I11">
         <v>255</v>
@@ -833,10 +833,10 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12">
-        <v>22222</v>
+        <v>50952</v>
       </c>
       <c r="B12">
-        <v>222.22</v>
+        <v>254.76</v>
       </c>
       <c r="C12">
         <v>255</v>
@@ -845,16 +845,16 @@
         <v>255</v>
       </c>
       <c r="E12">
-        <v>6573.001616161599</v>
+        <v>6.06271356783926</v>
       </c>
       <c r="F12">
-        <v>81.07405020203196</v>
+        <v>2.462257819124403</v>
       </c>
       <c r="G12">
-        <v>255</v>
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="I12">
         <v>255</v>
@@ -871,10 +871,10 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13">
-        <v>21468</v>
+        <v>50885</v>
       </c>
       <c r="B13">
-        <v>214.68</v>
+        <v>254.425</v>
       </c>
       <c r="C13">
         <v>255</v>
@@ -883,16 +883,16 @@
         <v>255</v>
       </c>
       <c r="E13">
-        <v>8002.886464646448</v>
+        <v>30.77826633165802</v>
       </c>
       <c r="F13">
-        <v>89.4588534726801</v>
+        <v>5.547816357059597</v>
       </c>
       <c r="G13">
-        <v>255</v>
+        <v>59</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="I13">
         <v>255</v>
@@ -909,10 +909,10 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14">
-        <v>21347</v>
+        <v>50750</v>
       </c>
       <c r="B14">
-        <v>213.47</v>
+        <v>253.75</v>
       </c>
       <c r="C14">
         <v>255</v>
@@ -921,16 +921,16 @@
         <v>255</v>
       </c>
       <c r="E14">
-        <v>8423.908181818168</v>
+        <v>131.0829145728643</v>
       </c>
       <c r="F14">
-        <v>91.78185104811391</v>
+        <v>11.44914470922891</v>
       </c>
       <c r="G14">
-        <v>255</v>
+        <v>138</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="I14">
         <v>255</v>
@@ -947,10 +947,10 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15">
-        <v>21278</v>
+        <v>50520</v>
       </c>
       <c r="B15">
-        <v>212.78</v>
+        <v>252.6</v>
       </c>
       <c r="C15">
         <v>255</v>
@@ -959,16 +959,16 @@
         <v>255</v>
       </c>
       <c r="E15">
-        <v>8445.668282828259</v>
+        <v>298.0000000000014</v>
       </c>
       <c r="F15">
-        <v>91.90031709862735</v>
+        <v>17.26267650163211</v>
       </c>
       <c r="G15">
-        <v>255</v>
+        <v>182</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="I15">
         <v>255</v>
@@ -985,10 +985,10 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16">
-        <v>21200</v>
+        <v>50207</v>
       </c>
       <c r="B16">
-        <v>212</v>
+        <v>251.035</v>
       </c>
       <c r="C16">
         <v>255</v>
@@ -997,16 +997,16 @@
         <v>255</v>
       </c>
       <c r="E16">
-        <v>8762.585858585859</v>
+        <v>651.0088190954781</v>
       </c>
       <c r="F16">
-        <v>93.6086847391088</v>
+        <v>25.5148744675626</v>
       </c>
       <c r="G16">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I16">
         <v>255</v>
@@ -1023,10 +1023,10 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17">
-        <v>21258</v>
+        <v>49809</v>
       </c>
       <c r="B17">
-        <v>212.58</v>
+        <v>249.045</v>
       </c>
       <c r="C17">
         <v>255</v>
@@ -1035,16 +1035,16 @@
         <v>255</v>
       </c>
       <c r="E17">
-        <v>8547.195555555569</v>
+        <v>1055.540678391951</v>
       </c>
       <c r="F17">
-        <v>92.45104410203039</v>
+        <v>32.48908552717283</v>
       </c>
       <c r="G17">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>255</v>
@@ -1061,10 +1061,10 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18">
-        <v>21268</v>
+        <v>48996</v>
       </c>
       <c r="B18">
-        <v>212.68</v>
+        <v>244.98</v>
       </c>
       <c r="C18">
         <v>255</v>
@@ -1073,16 +1073,16 @@
         <v>255</v>
       </c>
       <c r="E18">
-        <v>8454.219797979789</v>
+        <v>1709.72824120602</v>
       </c>
       <c r="F18">
-        <v>91.94683136454344</v>
+        <v>41.34886021652858</v>
       </c>
       <c r="G18">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>255</v>
@@ -1099,10 +1099,10 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19">
-        <v>21192</v>
+        <v>48076</v>
       </c>
       <c r="B19">
-        <v>211.92</v>
+        <v>240.38</v>
       </c>
       <c r="C19">
         <v>255</v>
@@ -1111,16 +1111,16 @@
         <v>255</v>
       </c>
       <c r="E19">
-        <v>8903.710707070686</v>
+        <v>2657.020703517596</v>
       </c>
       <c r="F19">
-        <v>94.35947597920776</v>
+        <v>51.5462967003217</v>
       </c>
       <c r="G19">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>255</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20">
-        <v>21206</v>
+        <v>47069</v>
       </c>
       <c r="B20">
-        <v>212.06</v>
+        <v>235.345</v>
       </c>
       <c r="C20">
         <v>255</v>
@@ -1149,10 +1149,10 @@
         <v>255</v>
       </c>
       <c r="E20">
-        <v>8827.875151515162</v>
+        <v>3843.764798994961</v>
       </c>
       <c r="F20">
-        <v>93.95677278150396</v>
+        <v>61.99810318868603</v>
       </c>
       <c r="G20">
         <v>255</v>
@@ -1175,10 +1175,10 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21">
-        <v>21277</v>
+        <v>45979</v>
       </c>
       <c r="B21">
-        <v>212.77</v>
+        <v>229.895</v>
       </c>
       <c r="C21">
         <v>255</v>
@@ -1187,16 +1187,16 @@
         <v>255</v>
       </c>
       <c r="E21">
-        <v>8446.623333333313</v>
+        <v>5127.270326633175</v>
       </c>
       <c r="F21">
-        <v>91.9055130736634</v>
+        <v>71.60496020970318</v>
       </c>
       <c r="G21">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>255</v>
@@ -1213,10 +1213,10 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22">
-        <v>21285</v>
+        <v>44938</v>
       </c>
       <c r="B22">
-        <v>212.85</v>
+        <v>224.69</v>
       </c>
       <c r="C22">
         <v>255</v>
@@ -1225,16 +1225,16 @@
         <v>255</v>
       </c>
       <c r="E22">
-        <v>8498.916666666695</v>
+        <v>5986.667236180921</v>
       </c>
       <c r="F22">
-        <v>92.18956918581785</v>
+        <v>77.37355644004559</v>
       </c>
       <c r="G22">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>255</v>
@@ -1251,10 +1251,10 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23">
-        <v>21308</v>
+        <v>43945</v>
       </c>
       <c r="B23">
-        <v>213.08</v>
+        <v>219.725</v>
       </c>
       <c r="C23">
         <v>255</v>
@@ -1263,16 +1263,16 @@
         <v>255</v>
       </c>
       <c r="E23">
-        <v>8662.23595959595</v>
+        <v>6940.441582914602</v>
       </c>
       <c r="F23">
-        <v>93.07113386864881</v>
+        <v>83.30931270220997</v>
       </c>
       <c r="G23">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>255</v>
@@ -1289,10 +1289,10 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24">
-        <v>21346</v>
+        <v>43110</v>
       </c>
       <c r="B24">
-        <v>213.46</v>
+        <v>215.55</v>
       </c>
       <c r="C24">
         <v>255</v>
@@ -1301,10 +1301,10 @@
         <v>255</v>
       </c>
       <c r="E24">
-        <v>8596.614545454557</v>
+        <v>7829.153266331652</v>
       </c>
       <c r="F24">
-        <v>92.71793001062177</v>
+        <v>88.48250259984542</v>
       </c>
       <c r="G24">
         <v>255</v>
@@ -1327,10 +1327,10 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25">
-        <v>21462</v>
+        <v>42710</v>
       </c>
       <c r="B25">
-        <v>214.62</v>
+        <v>213.55</v>
       </c>
       <c r="C25">
         <v>255</v>
@@ -1339,10 +1339,10 @@
         <v>255</v>
       </c>
       <c r="E25">
-        <v>8180.157171717177</v>
+        <v>8172.500000000019</v>
       </c>
       <c r="F25">
-        <v>90.44422132849161</v>
+        <v>90.40188051141425</v>
       </c>
       <c r="G25">
         <v>255</v>
@@ -1365,10 +1365,10 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26">
-        <v>21131</v>
+        <v>42674</v>
       </c>
       <c r="B26">
-        <v>211.31</v>
+        <v>213.37</v>
       </c>
       <c r="C26">
         <v>255</v>
@@ -1377,10 +1377,10 @@
         <v>255</v>
       </c>
       <c r="E26">
-        <v>8008.317070707089</v>
+        <v>8144.957889447217</v>
       </c>
       <c r="F26">
-        <v>89.48920086081387</v>
+        <v>90.24942043828989</v>
       </c>
       <c r="G26">
         <v>255</v>
@@ -1392,7 +1392,7 @@
         <v>255</v>
       </c>
       <c r="J26">
-        <v>237.5</v>
+        <v>255</v>
       </c>
       <c r="K26">
         <v>255</v>
@@ -1403,10 +1403,10 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27">
-        <v>18490</v>
+        <v>42652</v>
       </c>
       <c r="B27">
-        <v>184.9</v>
+        <v>213.26</v>
       </c>
       <c r="C27">
         <v>255</v>
@@ -1415,10 +1415,10 @@
         <v>255</v>
       </c>
       <c r="E27">
-        <v>11201.44444444445</v>
+        <v>8238.494874371905</v>
       </c>
       <c r="F27">
-        <v>105.8368765811069</v>
+        <v>90.7661548947178</v>
       </c>
       <c r="G27">
         <v>255</v>
@@ -1430,7 +1430,7 @@
         <v>255</v>
       </c>
       <c r="J27">
-        <v>74.5</v>
+        <v>255</v>
       </c>
       <c r="K27">
         <v>255</v>
@@ -1441,10 +1441,10 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28">
-        <v>18234</v>
+        <v>42597</v>
       </c>
       <c r="B28">
-        <v>182.34</v>
+        <v>212.985</v>
       </c>
       <c r="C28">
         <v>255</v>
@@ -1453,10 +1453,10 @@
         <v>255</v>
       </c>
       <c r="E28">
-        <v>10742.4690909091</v>
+        <v>8422.105301507583</v>
       </c>
       <c r="F28">
-        <v>103.6458831353619</v>
+        <v>91.77202897129159</v>
       </c>
       <c r="G28">
         <v>255</v>
@@ -1468,7 +1468,7 @@
         <v>255</v>
       </c>
       <c r="J28">
-        <v>89.25</v>
+        <v>255</v>
       </c>
       <c r="K28">
         <v>255</v>
@@ -1479,10 +1479,10 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29">
-        <v>19837</v>
+        <v>42593</v>
       </c>
       <c r="B29">
-        <v>198.37</v>
+        <v>212.965</v>
       </c>
       <c r="C29">
         <v>255</v>
@@ -1491,10 +1491,10 @@
         <v>255</v>
       </c>
       <c r="E29">
-        <v>9509.265757575755</v>
+        <v>8416.898266331638</v>
       </c>
       <c r="F29">
-        <v>97.51546419709929</v>
+        <v>91.74365518296968</v>
       </c>
       <c r="G29">
         <v>255</v>
@@ -1506,7 +1506,7 @@
         <v>255</v>
       </c>
       <c r="J29">
-        <v>202.5</v>
+        <v>255</v>
       </c>
       <c r="K29">
         <v>255</v>
@@ -1517,10 +1517,10 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30">
-        <v>20177</v>
+        <v>42540</v>
       </c>
       <c r="B30">
-        <v>201.77</v>
+        <v>212.7</v>
       </c>
       <c r="C30">
         <v>255</v>
@@ -1529,10 +1529,10 @@
         <v>255</v>
       </c>
       <c r="E30">
-        <v>8799.330404040413</v>
+        <v>8487.075376884442</v>
       </c>
       <c r="F30">
-        <v>93.80474617011878</v>
+        <v>92.12532429730949</v>
       </c>
       <c r="G30">
         <v>255</v>
@@ -1544,7 +1544,7 @@
         <v>255</v>
       </c>
       <c r="J30">
-        <v>219.75</v>
+        <v>255</v>
       </c>
       <c r="K30">
         <v>255</v>
@@ -1555,10 +1555,10 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31">
-        <v>20364</v>
+        <v>42503</v>
       </c>
       <c r="B31">
-        <v>203.64</v>
+        <v>212.515</v>
       </c>
       <c r="C31">
         <v>255</v>
@@ -1567,10 +1567,10 @@
         <v>255</v>
       </c>
       <c r="E31">
-        <v>8518.798383838379</v>
+        <v>8541.145502512538</v>
       </c>
       <c r="F31">
-        <v>92.29733681877489</v>
+        <v>92.41831800304817</v>
       </c>
       <c r="G31">
         <v>255</v>
@@ -1582,7 +1582,7 @@
         <v>255</v>
       </c>
       <c r="J31">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="K31">
         <v>255</v>
@@ -1593,10 +1593,10 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32">
-        <v>20811</v>
+        <v>42500</v>
       </c>
       <c r="B32">
-        <v>208.11</v>
+        <v>212.5</v>
       </c>
       <c r="C32">
         <v>255</v>
@@ -1605,22 +1605,22 @@
         <v>255</v>
       </c>
       <c r="E32">
-        <v>7537.755454545446</v>
+        <v>8560.994974874371</v>
       </c>
       <c r="F32">
-        <v>86.82024795256834</v>
+        <v>92.52564495789463</v>
       </c>
       <c r="G32">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>255</v>
       </c>
       <c r="J32">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="K32">
         <v>255</v>
@@ -1631,10 +1631,10 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33">
-        <v>21610</v>
+        <v>42472</v>
       </c>
       <c r="B33">
-        <v>216.1</v>
+        <v>212.36</v>
       </c>
       <c r="C33">
         <v>255</v>
@@ -1643,10 +1643,10 @@
         <v>255</v>
       </c>
       <c r="E33">
-        <v>6111.606060606046</v>
+        <v>8602.271758793928</v>
       </c>
       <c r="F33">
-        <v>78.17676164056712</v>
+        <v>92.7484326487188</v>
       </c>
       <c r="G33">
         <v>255</v>
@@ -1658,7 +1658,7 @@
         <v>255</v>
       </c>
       <c r="J33">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="K33">
         <v>255</v>
@@ -1669,10 +1669,10 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34">
-        <v>22425</v>
+        <v>42468</v>
       </c>
       <c r="B34">
-        <v>224.25</v>
+        <v>212.34</v>
       </c>
       <c r="C34">
         <v>255</v>
@@ -1681,10 +1681,10 @@
         <v>255</v>
       </c>
       <c r="E34">
-        <v>4393.320707070707</v>
+        <v>8597.672763819053</v>
       </c>
       <c r="F34">
-        <v>66.28212962081641</v>
+        <v>92.72363648940357</v>
       </c>
       <c r="G34">
         <v>255</v>
@@ -1696,7 +1696,7 @@
         <v>255</v>
       </c>
       <c r="J34">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="K34">
         <v>255</v>
@@ -1707,22 +1707,22 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35">
-        <v>22410</v>
+        <v>42468</v>
       </c>
       <c r="B35">
-        <v>224.1</v>
+        <v>212.34</v>
       </c>
       <c r="C35">
-        <v>254.5</v>
+        <v>255</v>
       </c>
       <c r="D35">
         <v>255</v>
       </c>
       <c r="E35">
-        <v>4305.020202020203</v>
+        <v>8597.934070351715</v>
       </c>
       <c r="F35">
-        <v>65.61265275859682</v>
+        <v>92.7250455397662</v>
       </c>
       <c r="G35">
         <v>255</v>
@@ -1734,10 +1734,10 @@
         <v>255</v>
       </c>
       <c r="J35">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="K35">
-        <v>254.5</v>
+        <v>255</v>
       </c>
       <c r="L35">
         <v>255</v>
@@ -1745,22 +1745,22 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36">
-        <v>22706</v>
+        <v>42459</v>
       </c>
       <c r="B36">
-        <v>227.06</v>
+        <v>212.295</v>
       </c>
       <c r="C36">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D36">
         <v>255</v>
       </c>
       <c r="E36">
-        <v>3830.602424242425</v>
+        <v>8660.078366834125</v>
       </c>
       <c r="F36">
-        <v>61.89186072693585</v>
+        <v>93.05954205149585</v>
       </c>
       <c r="G36">
         <v>255</v>
@@ -1772,10 +1772,10 @@
         <v>255</v>
       </c>
       <c r="J36">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="K36">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="L36">
         <v>255</v>
@@ -1783,22 +1783,22 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37">
-        <v>23030</v>
+        <v>42487</v>
       </c>
       <c r="B37">
-        <v>230.3</v>
+        <v>212.435</v>
       </c>
       <c r="C37">
-        <v>242.5</v>
+        <v>255</v>
       </c>
       <c r="D37">
         <v>255</v>
       </c>
       <c r="E37">
-        <v>3481.161616161623</v>
+        <v>8581.51334170852</v>
       </c>
       <c r="F37">
-        <v>59.0013696125914</v>
+        <v>92.63645795100609</v>
       </c>
       <c r="G37">
         <v>255</v>
@@ -1810,10 +1810,10 @@
         <v>255</v>
       </c>
       <c r="J37">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="K37">
-        <v>242.5</v>
+        <v>255</v>
       </c>
       <c r="L37">
         <v>255</v>
@@ -1821,22 +1821,22 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38">
-        <v>23109</v>
+        <v>42474</v>
       </c>
       <c r="B38">
-        <v>231.09</v>
+        <v>212.37</v>
       </c>
       <c r="C38">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="D38">
         <v>255</v>
       </c>
       <c r="E38">
-        <v>3060.123131313138</v>
+        <v>8605.450351758776</v>
       </c>
       <c r="F38">
-        <v>55.31837968806695</v>
+        <v>92.76556662770285</v>
       </c>
       <c r="G38">
         <v>255</v>
@@ -1848,10 +1848,10 @@
         <v>255</v>
       </c>
       <c r="J38">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="K38">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="L38">
         <v>255</v>
@@ -1859,22 +1859,22 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39">
-        <v>23077</v>
+        <v>42463</v>
       </c>
       <c r="B39">
-        <v>230.77</v>
+        <v>212.315</v>
       </c>
       <c r="C39">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="D39">
         <v>255</v>
       </c>
       <c r="E39">
-        <v>3075.310202020201</v>
+        <v>8630.046005025089</v>
       </c>
       <c r="F39">
-        <v>55.45547945893355</v>
+        <v>92.89804091058697</v>
       </c>
       <c r="G39">
         <v>255</v>
@@ -1886,10 +1886,10 @@
         <v>255</v>
       </c>
       <c r="J39">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="K39">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="L39">
         <v>255</v>
@@ -1897,37 +1897,37 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40">
-        <v>22915</v>
+        <v>42490</v>
       </c>
       <c r="B40">
-        <v>229.15</v>
+        <v>212.45</v>
       </c>
       <c r="C40">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="D40">
         <v>255</v>
       </c>
       <c r="E40">
-        <v>2766.371212121206</v>
+        <v>8600.831658291429</v>
       </c>
       <c r="F40">
-        <v>52.59630416789003</v>
+        <v>92.74066884755268</v>
       </c>
       <c r="G40">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="H40">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>255</v>
       </c>
       <c r="J40">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="K40">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="L40">
         <v>255</v>
@@ -1935,37 +1935,37 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41">
-        <v>23727</v>
+        <v>42531</v>
       </c>
       <c r="B41">
-        <v>237.27</v>
+        <v>212.655</v>
       </c>
       <c r="C41">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="D41">
         <v>255</v>
       </c>
       <c r="E41">
-        <v>1535.289999999999</v>
+        <v>8574.749723618037</v>
       </c>
       <c r="F41">
-        <v>39.1827768286016</v>
+        <v>92.59994451195982</v>
       </c>
       <c r="G41">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="H41">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>255</v>
       </c>
       <c r="J41">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="K41">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="L41">
         <v>255</v>
@@ -1973,22 +1973,22 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42">
-        <v>24022</v>
+        <v>42562</v>
       </c>
       <c r="B42">
-        <v>240.22</v>
+        <v>212.81</v>
       </c>
       <c r="C42">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="D42">
         <v>255</v>
       </c>
       <c r="E42">
-        <v>1544.132929292929</v>
+        <v>8509.752663316634</v>
       </c>
       <c r="F42">
-        <v>39.29545685308836</v>
+        <v>92.24832065309717</v>
       </c>
       <c r="G42">
         <v>255</v>
@@ -2000,10 +2000,10 @@
         <v>255</v>
       </c>
       <c r="J42">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="K42">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="L42">
         <v>255</v>
@@ -2011,22 +2011,22 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43">
-        <v>24057</v>
+        <v>42595</v>
       </c>
       <c r="B43">
-        <v>240.57</v>
+        <v>212.975</v>
       </c>
       <c r="C43">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="D43">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="E43">
-        <v>1301.782929292929</v>
+        <v>8467.51193467335</v>
       </c>
       <c r="F43">
-        <v>36.08022906375358</v>
+        <v>92.01908462201388</v>
       </c>
       <c r="G43">
         <v>255</v>
@@ -2038,10 +2038,10 @@
         <v>255</v>
       </c>
       <c r="J43">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="K43">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="L43">
         <v>255</v>
@@ -2049,22 +2049,22 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44">
-        <v>24110</v>
+        <v>42628</v>
       </c>
       <c r="B44">
-        <v>241.1</v>
+        <v>213.14</v>
       </c>
       <c r="C44">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="D44">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="E44">
-        <v>1149.222222222225</v>
+        <v>8480.060703517585</v>
       </c>
       <c r="F44">
-        <v>33.90018026828508</v>
+        <v>92.08724506421932</v>
       </c>
       <c r="G44">
         <v>255</v>
@@ -2076,10 +2076,10 @@
         <v>255</v>
       </c>
       <c r="J44">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="K44">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="L44">
         <v>255</v>
@@ -2087,22 +2087,22 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45">
-        <v>24150</v>
+        <v>42658</v>
       </c>
       <c r="B45">
-        <v>241.5</v>
+        <v>213.29</v>
       </c>
       <c r="C45">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="D45">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="E45">
-        <v>968.1717171717172</v>
+        <v>8458.699396984919</v>
       </c>
       <c r="F45">
-        <v>31.11545784930244</v>
+        <v>91.97118786329183</v>
       </c>
       <c r="G45">
         <v>255</v>
@@ -2114,10 +2114,10 @@
         <v>255</v>
       </c>
       <c r="J45">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="K45">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="L45">
         <v>255</v>
@@ -2125,37 +2125,37 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46">
-        <v>24167</v>
+        <v>42705</v>
       </c>
       <c r="B46">
-        <v>241.67</v>
+        <v>213.525</v>
       </c>
       <c r="C46">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="D46">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="E46">
-        <v>909.7990909090892</v>
+        <v>8391.738065326594</v>
       </c>
       <c r="F46">
-        <v>30.16287603841996</v>
+        <v>91.60643026189042</v>
       </c>
       <c r="G46">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>255</v>
       </c>
       <c r="J46">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="K46">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="L46">
         <v>255</v>
@@ -2163,37 +2163,37 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47">
-        <v>24181</v>
+        <v>42754</v>
       </c>
       <c r="B47">
-        <v>241.81</v>
+        <v>213.77</v>
       </c>
       <c r="C47">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="D47">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="E47">
-        <v>835.4483838383848</v>
+        <v>8327.5347738694</v>
       </c>
       <c r="F47">
-        <v>28.90412399361698</v>
+        <v>91.25532737253974</v>
       </c>
       <c r="G47">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>255</v>
       </c>
       <c r="J47">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="K47">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="L47">
         <v>255</v>
@@ -2201,37 +2201,37 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48">
-        <v>24184</v>
+        <v>42797</v>
       </c>
       <c r="B48">
-        <v>241.84</v>
+        <v>213.985</v>
       </c>
       <c r="C48">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="D48">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="E48">
-        <v>809.6105050505043</v>
+        <v>8316.065100502545</v>
       </c>
       <c r="F48">
-        <v>28.45365538995832</v>
+        <v>91.19246186227535</v>
       </c>
       <c r="G48">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="H48">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>255</v>
       </c>
       <c r="J48">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="K48">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="L48">
         <v>255</v>
@@ -2239,37 +2239,37 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49">
-        <v>24181</v>
+        <v>42846</v>
       </c>
       <c r="B49">
-        <v>241.81</v>
+        <v>214.23</v>
       </c>
       <c r="C49">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="D49">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="E49">
-        <v>813.6302020202028</v>
+        <v>8335.856381909502</v>
       </c>
       <c r="F49">
-        <v>28.524203792923</v>
+        <v>91.30091117787107</v>
       </c>
       <c r="G49">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="H49">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>255</v>
       </c>
       <c r="J49">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="K49">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="L49">
         <v>255</v>
@@ -2277,37 +2277,37 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50">
-        <v>24179</v>
+        <v>42562</v>
       </c>
       <c r="B50">
-        <v>241.79</v>
+        <v>212.81</v>
       </c>
       <c r="C50">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="D50">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="E50">
-        <v>823.5817171717189</v>
+        <v>8141.74261306537</v>
       </c>
       <c r="F50">
-        <v>28.69811347757408</v>
+        <v>90.2316054000225</v>
       </c>
       <c r="G50">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="H50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>255</v>
       </c>
       <c r="J50">
-        <v>239</v>
+        <v>240.75</v>
       </c>
       <c r="K50">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="L50">
         <v>255</v>
@@ -2315,22 +2315,22 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51">
-        <v>24184</v>
+        <v>41513</v>
       </c>
       <c r="B51">
-        <v>241.84</v>
+        <v>207.565</v>
       </c>
       <c r="C51">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="D51">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="E51">
-        <v>836.2165656565656</v>
+        <v>8038.598768844215</v>
       </c>
       <c r="F51">
-        <v>28.91740938702092</v>
+        <v>89.65823313474461</v>
       </c>
       <c r="G51">
         <v>255</v>
@@ -2342,10 +2342,10 @@
         <v>255</v>
       </c>
       <c r="J51">
-        <v>239</v>
+        <v>207.25</v>
       </c>
       <c r="K51">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="L51">
         <v>255</v>
@@ -2353,22 +2353,22 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52">
-        <v>24200</v>
+        <v>38359</v>
       </c>
       <c r="B52">
-        <v>242</v>
+        <v>191.795</v>
       </c>
       <c r="C52">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="D52">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="E52">
-        <v>816.2020202020202</v>
+        <v>9999.229120602986</v>
       </c>
       <c r="F52">
-        <v>28.56924955615776</v>
+        <v>99.99614552873018</v>
       </c>
       <c r="G52">
         <v>255</v>
@@ -2380,10 +2380,10 @@
         <v>255</v>
       </c>
       <c r="J52">
-        <v>239</v>
+        <v>115</v>
       </c>
       <c r="K52">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="L52">
         <v>255</v>
@@ -2391,22 +2391,22 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53">
-        <v>24188</v>
+        <v>35844</v>
       </c>
       <c r="B53">
-        <v>241.88</v>
+        <v>179.22</v>
       </c>
       <c r="C53">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="D53">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="E53">
-        <v>830.9349494949477</v>
+        <v>12065.54934673361</v>
       </c>
       <c r="F53">
-        <v>28.82594230020846</v>
+        <v>109.8432945005457</v>
       </c>
       <c r="G53">
         <v>255</v>
@@ -2418,10 +2418,10 @@
         <v>255</v>
       </c>
       <c r="J53">
-        <v>239</v>
+        <v>39.75</v>
       </c>
       <c r="K53">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="L53">
         <v>255</v>
@@ -2429,22 +2429,22 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54">
-        <v>24166</v>
+        <v>35487</v>
       </c>
       <c r="B54">
-        <v>241.66</v>
+        <v>177.435</v>
       </c>
       <c r="C54">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="D54">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="E54">
-        <v>892.8529292929297</v>
+        <v>11531.24198492463</v>
       </c>
       <c r="F54">
-        <v>29.88064472686173</v>
+        <v>107.3836206547564</v>
       </c>
       <c r="G54">
         <v>255</v>
@@ -2456,10 +2456,10 @@
         <v>255</v>
       </c>
       <c r="J54">
-        <v>239</v>
+        <v>62.75</v>
       </c>
       <c r="K54">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="L54">
         <v>255</v>
@@ -2467,22 +2467,22 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55">
-        <v>24092</v>
+        <v>37363</v>
       </c>
       <c r="B55">
-        <v>240.92</v>
+        <v>186.815</v>
       </c>
       <c r="C55">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="D55">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="E55">
-        <v>1080.862222222222</v>
+        <v>10691.72942211055</v>
       </c>
       <c r="F55">
-        <v>32.87646912644699</v>
+        <v>103.4008192526082</v>
       </c>
       <c r="G55">
         <v>255</v>
@@ -2494,10 +2494,10 @@
         <v>255</v>
       </c>
       <c r="J55">
-        <v>239</v>
+        <v>104.75</v>
       </c>
       <c r="K55">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="L55">
         <v>255</v>
@@ -2505,37 +2505,37 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56">
-        <v>24058</v>
+        <v>38981</v>
       </c>
       <c r="B56">
-        <v>240.58</v>
+        <v>194.905</v>
       </c>
       <c r="C56">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="D56">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="E56">
-        <v>1236.20565656566</v>
+        <v>9655.503492462296</v>
       </c>
       <c r="F56">
-        <v>35.1597163891528</v>
+        <v>98.26242156827958</v>
       </c>
       <c r="G56">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="H56">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>255</v>
       </c>
       <c r="J56">
-        <v>239</v>
+        <v>167.25</v>
       </c>
       <c r="K56">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="L56">
         <v>255</v>
@@ -2543,37 +2543,37 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57">
-        <v>24093</v>
+        <v>39698</v>
       </c>
       <c r="B57">
-        <v>240.93</v>
+        <v>198.49</v>
       </c>
       <c r="C57">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="D57">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="E57">
-        <v>1142.67181818182</v>
+        <v>9145.748643216057</v>
       </c>
       <c r="F57">
-        <v>33.80342908910011</v>
+        <v>95.63340756877827</v>
       </c>
       <c r="G57">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="H57">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>255</v>
       </c>
       <c r="J57">
-        <v>239</v>
+        <v>192.75</v>
       </c>
       <c r="K57">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="L57">
         <v>255</v>
@@ -2581,37 +2581,37 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58">
-        <v>24116</v>
+        <v>40124</v>
       </c>
       <c r="B58">
-        <v>241.16</v>
+        <v>200.62</v>
       </c>
       <c r="C58">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="D58">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="E58">
-        <v>1144.357979797979</v>
+        <v>8873.583517587911</v>
       </c>
       <c r="F58">
-        <v>33.82836058395351</v>
+        <v>94.19970019903413</v>
       </c>
       <c r="G58">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="H58">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>255</v>
       </c>
       <c r="J58">
-        <v>239</v>
+        <v>215.75</v>
       </c>
       <c r="K58">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="L58">
         <v>255</v>
@@ -2619,37 +2619,37 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59">
-        <v>24125</v>
+        <v>40460</v>
       </c>
       <c r="B59">
-        <v>241.25</v>
+        <v>202.3</v>
       </c>
       <c r="C59">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="D59">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="E59">
-        <v>1144.815656565657</v>
+        <v>8833.095477386931</v>
       </c>
       <c r="F59">
-        <v>33.83512459805131</v>
+        <v>93.9845491417974</v>
       </c>
       <c r="G59">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="H59">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>255</v>
       </c>
       <c r="J59">
-        <v>239</v>
+        <v>235.5</v>
       </c>
       <c r="K59">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="L59">
         <v>255</v>
@@ -2657,22 +2657,22 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60">
-        <v>24116</v>
+        <v>40658</v>
       </c>
       <c r="B60">
-        <v>241.16</v>
+        <v>203.29</v>
       </c>
       <c r="C60">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="D60">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="E60">
-        <v>1273.125656565656</v>
+        <v>8587.252160804002</v>
       </c>
       <c r="F60">
-        <v>35.68088643189314</v>
+        <v>92.66742772303547</v>
       </c>
       <c r="G60">
         <v>255</v>
@@ -2684,10 +2684,10 @@
         <v>255</v>
       </c>
       <c r="J60">
-        <v>239</v>
+        <v>233.5</v>
       </c>
       <c r="K60">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="L60">
         <v>255</v>
@@ -2695,37 +2695,37 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61">
-        <v>24096</v>
+        <v>40960</v>
       </c>
       <c r="B61">
-        <v>240.96</v>
+        <v>204.8</v>
       </c>
       <c r="C61">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="D61">
         <v>255</v>
       </c>
       <c r="E61">
-        <v>1250.624646464646</v>
+        <v>8192.33165829145</v>
       </c>
       <c r="F61">
-        <v>35.36417179101818</v>
+        <v>90.51150014385713</v>
       </c>
       <c r="G61">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="H61">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I61">
         <v>255</v>
       </c>
       <c r="J61">
-        <v>239</v>
+        <v>238.5</v>
       </c>
       <c r="K61">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="L61">
         <v>255</v>
@@ -2733,28 +2733,28 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62">
-        <v>24086</v>
+        <v>41381</v>
       </c>
       <c r="B62">
-        <v>240.86</v>
+        <v>206.905</v>
       </c>
       <c r="C62">
-        <v>239.5</v>
+        <v>255</v>
       </c>
       <c r="D62">
         <v>255</v>
       </c>
       <c r="E62">
-        <v>1109.778181818182</v>
+        <v>7865.774849246223</v>
       </c>
       <c r="F62">
-        <v>33.31333339397579</v>
+        <v>88.68920367917519</v>
       </c>
       <c r="G62">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="H62">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <v>255</v>
@@ -2763,7 +2763,7 @@
         <v>239</v>
       </c>
       <c r="K62">
-        <v>239.5</v>
+        <v>255</v>
       </c>
       <c r="L62">
         <v>255</v>
@@ -2771,28 +2771,28 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63">
-        <v>24088</v>
+        <v>41919</v>
       </c>
       <c r="B63">
-        <v>240.88</v>
+        <v>209.595</v>
       </c>
       <c r="C63">
-        <v>239.5</v>
+        <v>255</v>
       </c>
       <c r="D63">
         <v>255</v>
       </c>
       <c r="E63">
-        <v>1033.035959595958</v>
+        <v>7581.367814070362</v>
       </c>
       <c r="F63">
-        <v>32.14087677080322</v>
+        <v>87.07105037881628</v>
       </c>
       <c r="G63">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="H63">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>255</v>
@@ -2801,7 +2801,7 @@
         <v>239</v>
       </c>
       <c r="K63">
-        <v>239.5</v>
+        <v>255</v>
       </c>
       <c r="L63">
         <v>255</v>
@@ -2809,22 +2809,22 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64">
-        <v>24096</v>
+        <v>42712</v>
       </c>
       <c r="B64">
-        <v>240.96</v>
+        <v>213.56</v>
       </c>
       <c r="C64">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="D64">
         <v>255</v>
       </c>
       <c r="E64">
-        <v>1124.644848484848</v>
+        <v>6589.413467336676</v>
       </c>
       <c r="F64">
-        <v>33.53572495839099</v>
+        <v>81.17520229316756</v>
       </c>
       <c r="G64">
         <v>255</v>
@@ -2839,7 +2839,7 @@
         <v>239</v>
       </c>
       <c r="K64">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="L64">
         <v>255</v>
@@ -2847,22 +2847,22 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65">
-        <v>24104</v>
+        <v>43638</v>
       </c>
       <c r="B65">
-        <v>241.04</v>
+        <v>218.19</v>
       </c>
       <c r="C65">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="D65">
         <v>255</v>
       </c>
       <c r="E65">
-        <v>1182.725656565654</v>
+        <v>5585.461206030177</v>
       </c>
       <c r="F65">
-        <v>34.39077865599519</v>
+        <v>74.73594320024453</v>
       </c>
       <c r="G65">
         <v>255</v>
@@ -2877,7 +2877,7 @@
         <v>239</v>
       </c>
       <c r="K65">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="L65">
         <v>255</v>
@@ -2885,28 +2885,28 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66">
-        <v>24110</v>
+        <v>44495</v>
       </c>
       <c r="B66">
-        <v>241.1</v>
+        <v>222.475</v>
       </c>
       <c r="C66">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D66">
         <v>255</v>
       </c>
       <c r="E66">
-        <v>1253.828282828286</v>
+        <v>4863.145100502519</v>
       </c>
       <c r="F66">
-        <v>35.40943776492767</v>
+        <v>69.73625384620627</v>
       </c>
       <c r="G66">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="H66">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>255</v>
@@ -2915,7 +2915,7 @@
         <v>239</v>
       </c>
       <c r="K66">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="L66">
         <v>255</v>
@@ -2923,28 +2923,28 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67">
-        <v>24106</v>
+        <v>45070</v>
       </c>
       <c r="B67">
-        <v>241.06</v>
+        <v>225.35</v>
       </c>
       <c r="C67">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D67">
         <v>255</v>
       </c>
       <c r="E67">
-        <v>1267.107474747476</v>
+        <v>4406.811557788964</v>
       </c>
       <c r="F67">
-        <v>35.59645312032473</v>
+        <v>66.38381999997412</v>
       </c>
       <c r="G67">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="H67">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I67">
         <v>255</v>
@@ -2953,7 +2953,7 @@
         <v>239</v>
       </c>
       <c r="K67">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="L67">
         <v>255</v>
@@ -2961,22 +2961,22 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68">
-        <v>24118</v>
+        <v>44796</v>
       </c>
       <c r="B68">
-        <v>241.18</v>
+        <v>223.98</v>
       </c>
       <c r="C68">
-        <v>253.5</v>
+        <v>255</v>
       </c>
       <c r="D68">
         <v>255</v>
       </c>
       <c r="E68">
-        <v>1198.714747474747</v>
+        <v>4164.632763819096</v>
       </c>
       <c r="F68">
-        <v>34.6224601591907</v>
+        <v>64.53396597001533</v>
       </c>
       <c r="G68">
         <v>255</v>
@@ -2991,7 +2991,7 @@
         <v>239</v>
       </c>
       <c r="K68">
-        <v>253.5</v>
+        <v>255</v>
       </c>
       <c r="L68">
         <v>255</v>
@@ -2999,28 +2999,28 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69">
-        <v>24130</v>
+        <v>44940</v>
       </c>
       <c r="B69">
-        <v>241.3</v>
+        <v>224.7</v>
       </c>
       <c r="C69">
-        <v>254.5</v>
+        <v>255</v>
       </c>
       <c r="D69">
         <v>255</v>
       </c>
       <c r="E69">
-        <v>1057.525252525254</v>
+        <v>3972.281407035164</v>
       </c>
       <c r="F69">
-        <v>32.51961335141077</v>
+        <v>63.02603753239739</v>
       </c>
       <c r="G69">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="H69">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>255</v>
@@ -3029,7 +3029,7 @@
         <v>239</v>
       </c>
       <c r="K69">
-        <v>254.5</v>
+        <v>255</v>
       </c>
       <c r="L69">
         <v>255</v>
@@ -3037,28 +3037,28 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70">
-        <v>24130</v>
+        <v>45324</v>
       </c>
       <c r="B70">
-        <v>241.3</v>
+        <v>226.62</v>
       </c>
       <c r="C70">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D70">
         <v>255</v>
       </c>
       <c r="E70">
-        <v>1111.626262626264</v>
+        <v>3947.3624120603</v>
       </c>
       <c r="F70">
-        <v>33.34105971060703</v>
+        <v>62.8280384228276</v>
       </c>
       <c r="G70">
-        <v>197</v>
+        <v>255</v>
       </c>
       <c r="H70">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>255</v>
@@ -3067,7 +3067,7 @@
         <v>239</v>
       </c>
       <c r="K70">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L70">
         <v>255</v>
@@ -3075,22 +3075,22 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71">
-        <v>24115</v>
+        <v>45553</v>
       </c>
       <c r="B71">
-        <v>241.15</v>
+        <v>227.765</v>
       </c>
       <c r="C71">
-        <v>255</v>
+        <v>249.5</v>
       </c>
       <c r="D71">
         <v>255</v>
       </c>
       <c r="E71">
-        <v>1299.946969696967</v>
+        <v>3890.904296482392</v>
       </c>
       <c r="F71">
-        <v>36.0547773491526</v>
+        <v>62.37711356324844</v>
       </c>
       <c r="G71">
         <v>255</v>
@@ -3105,7 +3105,7 @@
         <v>239</v>
       </c>
       <c r="K71">
-        <v>255</v>
+        <v>249.5</v>
       </c>
       <c r="L71">
         <v>255</v>
@@ -3113,22 +3113,22 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72">
-        <v>24114</v>
+        <v>45906</v>
       </c>
       <c r="B72">
-        <v>241.14</v>
+        <v>229.53</v>
       </c>
       <c r="C72">
-        <v>255</v>
+        <v>243.5</v>
       </c>
       <c r="D72">
         <v>255</v>
       </c>
       <c r="E72">
-        <v>1402.768080808076</v>
+        <v>3501.81819095476</v>
       </c>
       <c r="F72">
-        <v>37.45354563733687</v>
+        <v>59.17616235406584</v>
       </c>
       <c r="G72">
         <v>255</v>
@@ -3143,7 +3143,7 @@
         <v>239</v>
       </c>
       <c r="K72">
-        <v>255</v>
+        <v>243.5</v>
       </c>
       <c r="L72">
         <v>255</v>
@@ -3151,28 +3151,28 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73">
-        <v>24106</v>
+        <v>46164</v>
       </c>
       <c r="B73">
-        <v>241.06</v>
+        <v>230.82</v>
       </c>
       <c r="C73">
-        <v>255</v>
+        <v>242.5</v>
       </c>
       <c r="D73">
         <v>255</v>
       </c>
       <c r="E73">
-        <v>1238.036767676769</v>
+        <v>3170.932261306537</v>
       </c>
       <c r="F73">
-        <v>35.18574665509841</v>
+        <v>56.31103143529283</v>
       </c>
       <c r="G73">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="H73">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>255</v>
@@ -3181,7 +3181,7 @@
         <v>239</v>
       </c>
       <c r="K73">
-        <v>255</v>
+        <v>242.5</v>
       </c>
       <c r="L73">
         <v>255</v>
@@ -3189,22 +3189,22 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74">
-        <v>24123</v>
+        <v>46280</v>
       </c>
       <c r="B74">
-        <v>241.23</v>
+        <v>231.4</v>
       </c>
       <c r="C74">
-        <v>255</v>
+        <v>241.5</v>
       </c>
       <c r="D74">
         <v>255</v>
       </c>
       <c r="E74">
-        <v>1361.391010101012</v>
+        <v>3022.422110552756</v>
       </c>
       <c r="F74">
-        <v>36.89703253787508</v>
+        <v>54.97655964638707</v>
       </c>
       <c r="G74">
         <v>255</v>
@@ -3219,7 +3219,7 @@
         <v>239</v>
       </c>
       <c r="K74">
-        <v>255</v>
+        <v>241.5</v>
       </c>
       <c r="L74">
         <v>255</v>
@@ -3227,28 +3227,28 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75">
-        <v>24152</v>
+        <v>46203</v>
       </c>
       <c r="B75">
-        <v>241.52</v>
+        <v>231.015</v>
       </c>
       <c r="C75">
-        <v>255</v>
+        <v>241.5</v>
       </c>
       <c r="D75">
         <v>255</v>
       </c>
       <c r="E75">
-        <v>1287.444040404041</v>
+        <v>3148.296256281402</v>
       </c>
       <c r="F75">
-        <v>35.88097044958568</v>
+        <v>56.10968059329337</v>
       </c>
       <c r="G75">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="H75">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>255</v>
@@ -3257,7 +3257,7 @@
         <v>239</v>
       </c>
       <c r="K75">
-        <v>255</v>
+        <v>241.5</v>
       </c>
       <c r="L75">
         <v>255</v>
@@ -3265,28 +3265,28 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76">
-        <v>24135</v>
+        <v>46167</v>
       </c>
       <c r="B76">
-        <v>241.35</v>
+        <v>230.835</v>
       </c>
       <c r="C76">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="D76">
         <v>255</v>
       </c>
       <c r="E76">
-        <v>1286.088383838382</v>
+        <v>2971.676155778895</v>
       </c>
       <c r="F76">
-        <v>35.86207444973564</v>
+        <v>54.5130824277888</v>
       </c>
       <c r="G76">
-        <v>223</v>
+        <v>255</v>
       </c>
       <c r="H76">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>255</v>
@@ -3295,7 +3295,7 @@
         <v>239</v>
       </c>
       <c r="K76">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="L76">
         <v>255</v>
@@ -3303,28 +3303,28 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77">
-        <v>24156</v>
+        <v>46073</v>
       </c>
       <c r="B77">
-        <v>241.56</v>
+        <v>230.365</v>
       </c>
       <c r="C77">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="D77">
         <v>255</v>
       </c>
       <c r="E77">
-        <v>1245.804444444444</v>
+        <v>2987.820879396984</v>
       </c>
       <c r="F77">
-        <v>35.29595507199719</v>
+        <v>54.66096303027403</v>
       </c>
       <c r="G77">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>255</v>
@@ -3333,7 +3333,7 @@
         <v>239</v>
       </c>
       <c r="K77">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="L77">
         <v>255</v>
@@ -3341,28 +3341,28 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78">
-        <v>24134</v>
+        <v>45904</v>
       </c>
       <c r="B78">
-        <v>241.34</v>
+        <v>229.52</v>
       </c>
       <c r="C78">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D78">
         <v>255</v>
       </c>
       <c r="E78">
-        <v>1481.135757575757</v>
+        <v>3145.828743718596</v>
       </c>
       <c r="F78">
-        <v>38.48552659865468</v>
+        <v>56.08768798692451</v>
       </c>
       <c r="G78">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H78">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>255</v>
@@ -3371,7 +3371,7 @@
         <v>239</v>
       </c>
       <c r="K78">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="L78">
         <v>255</v>
@@ -3379,22 +3379,22 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79">
-        <v>24112</v>
+        <v>45736</v>
       </c>
       <c r="B79">
-        <v>241.12</v>
+        <v>228.68</v>
       </c>
       <c r="C79">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D79">
         <v>255</v>
       </c>
       <c r="E79">
-        <v>1498.591515151516</v>
+        <v>3097.17346733668</v>
       </c>
       <c r="F79">
-        <v>38.71164573034213</v>
+        <v>55.6522548270659</v>
       </c>
       <c r="G79">
         <v>255</v>
@@ -3409,7 +3409,7 @@
         <v>239</v>
       </c>
       <c r="K79">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="L79">
         <v>255</v>
@@ -3417,28 +3417,28 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80">
-        <v>24140</v>
+        <v>46783</v>
       </c>
       <c r="B80">
-        <v>241.4</v>
+        <v>233.915</v>
       </c>
       <c r="C80">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D80">
         <v>255</v>
       </c>
       <c r="E80">
-        <v>1476.424242424238</v>
+        <v>1875.947512562819</v>
       </c>
       <c r="F80">
-        <v>38.42426632252381</v>
+        <v>43.31220974001233</v>
       </c>
       <c r="G80">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>255</v>
@@ -3447,7 +3447,7 @@
         <v>239</v>
       </c>
       <c r="K80">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="L80">
         <v>255</v>
@@ -3455,28 +3455,28 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81">
-        <v>24153</v>
+        <v>47728</v>
       </c>
       <c r="B81">
-        <v>241.53</v>
+        <v>238.64</v>
       </c>
       <c r="C81">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D81">
         <v>255</v>
       </c>
       <c r="E81">
-        <v>1464.978888888885</v>
+        <v>1335.789346733669</v>
       </c>
       <c r="F81">
-        <v>38.27504263732289</v>
+        <v>36.54845204292063</v>
       </c>
       <c r="G81">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="H81">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>255</v>
@@ -3485,7 +3485,7 @@
         <v>239</v>
       </c>
       <c r="K81">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="L81">
         <v>255</v>
@@ -3493,28 +3493,28 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82">
-        <v>24154</v>
+        <v>48116</v>
       </c>
       <c r="B82">
-        <v>241.54</v>
+        <v>240.58</v>
       </c>
       <c r="C82">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D82">
         <v>255</v>
       </c>
       <c r="E82">
-        <v>1473.564040404041</v>
+        <v>1323.581507537692</v>
       </c>
       <c r="F82">
-        <v>38.387029585578</v>
+        <v>36.3810597363201</v>
       </c>
       <c r="G82">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>255</v>
@@ -3523,7 +3523,7 @@
         <v>239</v>
       </c>
       <c r="K82">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="L82">
         <v>255</v>
@@ -3531,28 +3531,28 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83">
-        <v>24145</v>
+        <v>48138</v>
       </c>
       <c r="B83">
-        <v>241.45</v>
+        <v>240.69</v>
       </c>
       <c r="C83">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="D83">
         <v>255</v>
       </c>
       <c r="E83">
-        <v>1579.159090909094</v>
+        <v>1211.471256281406</v>
       </c>
       <c r="F83">
-        <v>39.73863473886709</v>
+        <v>34.80619565941394</v>
       </c>
       <c r="G83">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="H83">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>255</v>
@@ -3561,7 +3561,7 @@
         <v>239</v>
       </c>
       <c r="K83">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="L83">
         <v>255</v>
@@ -3569,28 +3569,28 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84">
-        <v>24158</v>
+        <v>48150</v>
       </c>
       <c r="B84">
-        <v>241.58</v>
+        <v>240.75</v>
       </c>
       <c r="C84">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D84">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E84">
-        <v>1537.498585858591</v>
+        <v>1150.198492462312</v>
       </c>
       <c r="F84">
-        <v>39.21094982091853</v>
+        <v>33.9145764010449</v>
       </c>
       <c r="G84">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>255</v>
@@ -3599,7 +3599,7 @@
         <v>239</v>
       </c>
       <c r="K84">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="L84">
         <v>255</v>
@@ -3607,28 +3607,28 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85">
-        <v>24144</v>
+        <v>48153</v>
       </c>
       <c r="B85">
-        <v>241.44</v>
+        <v>240.765</v>
       </c>
       <c r="C85">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D85">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E85">
-        <v>1706.147878787874</v>
+        <v>1127.69826633166</v>
       </c>
       <c r="F85">
-        <v>41.30554295476425</v>
+        <v>33.58121895243917</v>
       </c>
       <c r="G85">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="H85">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I85">
         <v>255</v>
@@ -3637,7 +3637,7 @@
         <v>239</v>
       </c>
       <c r="K85">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="L85">
         <v>255</v>
@@ -3645,28 +3645,28 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86">
-        <v>24158</v>
+        <v>48150</v>
       </c>
       <c r="B86">
-        <v>241.58</v>
+        <v>240.75</v>
       </c>
       <c r="C86">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D86">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E86">
-        <v>1545.680404040409</v>
+        <v>1146.992462311558</v>
       </c>
       <c r="F86">
-        <v>39.31514217245576</v>
+        <v>33.86727716117075</v>
       </c>
       <c r="G86">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="H86">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>255</v>
@@ -3675,7 +3675,7 @@
         <v>239</v>
       </c>
       <c r="K86">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="L86">
         <v>255</v>
@@ -3683,28 +3683,28 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87">
-        <v>24118</v>
+        <v>48125</v>
       </c>
       <c r="B87">
-        <v>241.18</v>
+        <v>240.625</v>
       </c>
       <c r="C87">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D87">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E87">
-        <v>1855.300606060602</v>
+        <v>1188.738065326633</v>
       </c>
       <c r="F87">
-        <v>43.07320055510853</v>
+        <v>34.47808094031095</v>
       </c>
       <c r="G87">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="H87">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <v>255</v>
@@ -3713,7 +3713,7 @@
         <v>239</v>
       </c>
       <c r="K87">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="L87">
         <v>255</v>
@@ -3721,28 +3721,28 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88">
-        <v>24105</v>
+        <v>48122</v>
       </c>
       <c r="B88">
-        <v>241.05</v>
+        <v>240.61</v>
       </c>
       <c r="C88">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D88">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E88">
-        <v>1833.11868686869</v>
+        <v>1191.043115577885</v>
       </c>
       <c r="F88">
-        <v>42.81493532482199</v>
+        <v>34.51149251449269</v>
       </c>
       <c r="G88">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>255</v>
@@ -3751,7 +3751,7 @@
         <v>239</v>
       </c>
       <c r="K88">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="L88">
         <v>255</v>
@@ -3759,22 +3759,22 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89">
-        <v>24106</v>
+        <v>48131</v>
       </c>
       <c r="B89">
-        <v>241.06</v>
+        <v>240.655</v>
       </c>
       <c r="C89">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D89">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E89">
-        <v>1760.117575757577</v>
+        <v>1177.523592964825</v>
       </c>
       <c r="F89">
-        <v>41.95375520448172</v>
+        <v>34.31506364506446</v>
       </c>
       <c r="G89">
         <v>255</v>
@@ -3789,7 +3789,7 @@
         <v>239</v>
       </c>
       <c r="K89">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="L89">
         <v>255</v>
@@ -3797,28 +3797,28 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90">
-        <v>24082</v>
+        <v>48137</v>
       </c>
       <c r="B90">
-        <v>240.82</v>
+        <v>240.685</v>
       </c>
       <c r="C90">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D90">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E90">
-        <v>1828.411717171718</v>
+        <v>1165.06108040201</v>
       </c>
       <c r="F90">
-        <v>42.75993121102649</v>
+        <v>34.13299108490215</v>
       </c>
       <c r="G90">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="H90">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>255</v>
@@ -3827,7 +3827,7 @@
         <v>239</v>
       </c>
       <c r="K90">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="L90">
         <v>255</v>
@@ -3835,22 +3835,22 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91">
-        <v>24027</v>
+        <v>48157</v>
       </c>
       <c r="B91">
-        <v>240.27</v>
+        <v>240.785</v>
       </c>
       <c r="C91">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D91">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E91">
-        <v>2270.946565656562</v>
+        <v>1134.008819095473</v>
       </c>
       <c r="F91">
-        <v>47.65444958927301</v>
+        <v>33.67504742528915</v>
       </c>
       <c r="G91">
         <v>255</v>
@@ -3865,7 +3865,7 @@
         <v>239</v>
       </c>
       <c r="K91">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="L91">
         <v>255</v>
@@ -3873,37 +3873,37 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92">
-        <v>23850</v>
+        <v>48182</v>
       </c>
       <c r="B92">
-        <v>238.5</v>
+        <v>240.91</v>
       </c>
       <c r="C92">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D92">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E92">
-        <v>2337.848484848485</v>
+        <v>1093.418994974873</v>
       </c>
       <c r="F92">
-        <v>48.35130282472733</v>
+        <v>33.06688668403593</v>
       </c>
       <c r="G92">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="H92">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>255</v>
       </c>
       <c r="J92">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K92">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="L92">
         <v>255</v>
@@ -3911,22 +3911,22 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93">
-        <v>23032</v>
+        <v>48203</v>
       </c>
       <c r="B93">
-        <v>230.32</v>
+        <v>241.015</v>
       </c>
       <c r="C93">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D93">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E93">
-        <v>3624.078383838374</v>
+        <v>1056.617864321611</v>
       </c>
       <c r="F93">
-        <v>60.20031880180017</v>
+        <v>32.5056589584277</v>
       </c>
       <c r="G93">
         <v>255</v>
@@ -3938,10 +3938,10 @@
         <v>255</v>
       </c>
       <c r="J93">
-        <v>251.5</v>
+        <v>239</v>
       </c>
       <c r="K93">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="L93">
         <v>255</v>
@@ -3949,22 +3949,22 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94">
-        <v>22156</v>
+        <v>48216</v>
       </c>
       <c r="B94">
-        <v>221.56</v>
+        <v>241.08</v>
       </c>
       <c r="C94">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D94">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E94">
-        <v>5768.996363636378</v>
+        <v>1040.395577889445</v>
       </c>
       <c r="F94">
-        <v>75.95390946907459</v>
+        <v>32.25516358491218</v>
       </c>
       <c r="G94">
         <v>255</v>
@@ -3976,10 +3976,10 @@
         <v>255</v>
       </c>
       <c r="J94">
-        <v>254.5</v>
+        <v>239</v>
       </c>
       <c r="K94">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="L94">
         <v>255</v>
@@ -3987,37 +3987,37 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95">
-        <v>23095</v>
+        <v>48214</v>
       </c>
       <c r="B95">
-        <v>230.95</v>
+        <v>241.07</v>
       </c>
       <c r="C95">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D95">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E95">
-        <v>4138.977272727283</v>
+        <v>1040.919698492463</v>
       </c>
       <c r="F95">
-        <v>64.33488379353213</v>
+        <v>32.26328716191924</v>
       </c>
       <c r="G95">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="H95">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>255</v>
       </c>
       <c r="J95">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="K95">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="L95">
         <v>255</v>
@@ -4025,37 +4025,37 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96">
-        <v>24211</v>
+        <v>48211</v>
       </c>
       <c r="B96">
-        <v>242.11</v>
+        <v>241.055</v>
       </c>
       <c r="C96">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D96">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E96">
-        <v>2228.018080808084</v>
+        <v>1044.504497487438</v>
       </c>
       <c r="F96">
-        <v>47.20188641154169</v>
+        <v>32.31879480252069</v>
       </c>
       <c r="G96">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="H96">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>255</v>
       </c>
       <c r="J96">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="K96">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="L96">
         <v>255</v>
@@ -4063,37 +4063,37 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97">
-        <v>25336</v>
+        <v>48213</v>
       </c>
       <c r="B97">
-        <v>253.36</v>
+        <v>241.065</v>
       </c>
       <c r="C97">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D97">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E97">
-        <v>57.16202020202008</v>
+        <v>1041.136457286433</v>
       </c>
       <c r="F97">
-        <v>7.560556871158372</v>
+        <v>32.26664620450091</v>
       </c>
       <c r="G97">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="H97">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>255</v>
       </c>
       <c r="J97">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="K97">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="L97">
         <v>255</v>
@@ -4101,37 +4101,37 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98">
-        <v>25500</v>
+        <v>48214</v>
       </c>
       <c r="B98">
-        <v>255</v>
+        <v>241.07</v>
       </c>
       <c r="C98">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D98">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1040.819195979901</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>32.26172958754537</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="H98">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>255</v>
       </c>
       <c r="J98">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="K98">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="L98">
         <v>255</v>
@@ -4139,37 +4139,37 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99">
-        <v>25500</v>
+        <v>48195</v>
       </c>
       <c r="B99">
-        <v>255</v>
+        <v>240.975</v>
       </c>
       <c r="C99">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D99">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1078.004396984925</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>32.83297727871972</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="H99">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <v>255</v>
       </c>
       <c r="J99">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="K99">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="L99">
         <v>255</v>
@@ -4177,37 +4177,37 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100">
-        <v>25500</v>
+        <v>48188</v>
       </c>
       <c r="B100">
-        <v>255</v>
+        <v>240.94</v>
       </c>
       <c r="C100">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D100">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1098.910954773866</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>33.14982586340184</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="H100">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>255</v>
       </c>
       <c r="J100">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="K100">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="L100">
         <v>255</v>
@@ -4215,39 +4215,3839 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101">
-        <v>25500</v>
+        <v>48194</v>
       </c>
       <c r="B101">
-        <v>255</v>
+        <v>240.97</v>
       </c>
       <c r="C101">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D101">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1094.250351758795</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>33.07945513092371</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="H101">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>255</v>
       </c>
       <c r="J101">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="K101">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="L101">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102">
+        <v>48205</v>
+      </c>
+      <c r="B102">
+        <v>241.025</v>
+      </c>
+      <c r="C102">
+        <v>239</v>
+      </c>
+      <c r="D102">
+        <v>239</v>
+      </c>
+      <c r="E102">
+        <v>1086.496859296483</v>
+      </c>
+      <c r="F102">
+        <v>32.96205180653175</v>
+      </c>
+      <c r="G102">
+        <v>255</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>255</v>
+      </c>
+      <c r="J102">
+        <v>239</v>
+      </c>
+      <c r="K102">
+        <v>239</v>
+      </c>
+      <c r="L102">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103">
+        <v>48204</v>
+      </c>
+      <c r="B103">
+        <v>241.02</v>
+      </c>
+      <c r="C103">
+        <v>239</v>
+      </c>
+      <c r="D103">
+        <v>239</v>
+      </c>
+      <c r="E103">
+        <v>1089.115175879395</v>
+      </c>
+      <c r="F103">
+        <v>33.00174504294272</v>
+      </c>
+      <c r="G103">
+        <v>255</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>255</v>
+      </c>
+      <c r="J103">
+        <v>239</v>
+      </c>
+      <c r="K103">
+        <v>239</v>
+      </c>
+      <c r="L103">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104">
+        <v>48207</v>
+      </c>
+      <c r="B104">
+        <v>241.035</v>
+      </c>
+      <c r="C104">
+        <v>239</v>
+      </c>
+      <c r="D104">
+        <v>239</v>
+      </c>
+      <c r="E104">
+        <v>1070.184698492463</v>
+      </c>
+      <c r="F104">
+        <v>32.71367754460606</v>
+      </c>
+      <c r="G104">
+        <v>255</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>255</v>
+      </c>
+      <c r="J104">
+        <v>239</v>
+      </c>
+      <c r="K104">
+        <v>239</v>
+      </c>
+      <c r="L104">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105">
+        <v>48219</v>
+      </c>
+      <c r="B105">
+        <v>241.095</v>
+      </c>
+      <c r="C105">
+        <v>239</v>
+      </c>
+      <c r="D105">
+        <v>239</v>
+      </c>
+      <c r="E105">
+        <v>1033.201984924622</v>
+      </c>
+      <c r="F105">
+        <v>32.1434594423908</v>
+      </c>
+      <c r="G105">
+        <v>255</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>255</v>
+      </c>
+      <c r="J105">
+        <v>239</v>
+      </c>
+      <c r="K105">
+        <v>239</v>
+      </c>
+      <c r="L105">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106">
+        <v>48244</v>
+      </c>
+      <c r="B106">
+        <v>241.22</v>
+      </c>
+      <c r="C106">
+        <v>239</v>
+      </c>
+      <c r="D106">
+        <v>239</v>
+      </c>
+      <c r="E106">
+        <v>998.2528643216091</v>
+      </c>
+      <c r="F106">
+        <v>31.5951398845077</v>
+      </c>
+      <c r="G106">
+        <v>255</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>255</v>
+      </c>
+      <c r="J106">
+        <v>239</v>
+      </c>
+      <c r="K106">
+        <v>239</v>
+      </c>
+      <c r="L106">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107">
+        <v>48224</v>
+      </c>
+      <c r="B107">
+        <v>241.12</v>
+      </c>
+      <c r="C107">
+        <v>239</v>
+      </c>
+      <c r="D107">
+        <v>239</v>
+      </c>
+      <c r="E107">
+        <v>1023.231758793968</v>
+      </c>
+      <c r="F107">
+        <v>31.98799397889727</v>
+      </c>
+      <c r="G107">
+        <v>255</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>255</v>
+      </c>
+      <c r="J107">
+        <v>239</v>
+      </c>
+      <c r="K107">
+        <v>239</v>
+      </c>
+      <c r="L107">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108">
+        <v>48195</v>
+      </c>
+      <c r="B108">
+        <v>240.975</v>
+      </c>
+      <c r="C108">
+        <v>239</v>
+      </c>
+      <c r="D108">
+        <v>239</v>
+      </c>
+      <c r="E108">
+        <v>1076.929020100499</v>
+      </c>
+      <c r="F108">
+        <v>32.81659671721764</v>
+      </c>
+      <c r="G108">
+        <v>255</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>255</v>
+      </c>
+      <c r="J108">
+        <v>239</v>
+      </c>
+      <c r="K108">
+        <v>239</v>
+      </c>
+      <c r="L108">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109">
+        <v>48171</v>
+      </c>
+      <c r="B109">
+        <v>240.855</v>
+      </c>
+      <c r="C109">
+        <v>239</v>
+      </c>
+      <c r="D109">
+        <v>239</v>
+      </c>
+      <c r="E109">
+        <v>1141.843190954768</v>
+      </c>
+      <c r="F109">
+        <v>33.79117031052296</v>
+      </c>
+      <c r="G109">
+        <v>255</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>255</v>
+      </c>
+      <c r="J109">
+        <v>239</v>
+      </c>
+      <c r="K109">
+        <v>239</v>
+      </c>
+      <c r="L109">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110">
+        <v>48150</v>
+      </c>
+      <c r="B110">
+        <v>240.75</v>
+      </c>
+      <c r="C110">
+        <v>239</v>
+      </c>
+      <c r="D110">
+        <v>239</v>
+      </c>
+      <c r="E110">
+        <v>1189.575376884422</v>
+      </c>
+      <c r="F110">
+        <v>34.49022146760473</v>
+      </c>
+      <c r="G110">
+        <v>255</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>255</v>
+      </c>
+      <c r="J110">
+        <v>239</v>
+      </c>
+      <c r="K110">
+        <v>239</v>
+      </c>
+      <c r="L110">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111">
+        <v>48154</v>
+      </c>
+      <c r="B111">
+        <v>240.77</v>
+      </c>
+      <c r="C111">
+        <v>239</v>
+      </c>
+      <c r="D111">
+        <v>239</v>
+      </c>
+      <c r="E111">
+        <v>1186.700603015077</v>
+      </c>
+      <c r="F111">
+        <v>34.44852105700732</v>
+      </c>
+      <c r="G111">
+        <v>255</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>255</v>
+      </c>
+      <c r="J111">
+        <v>239</v>
+      </c>
+      <c r="K111">
+        <v>239</v>
+      </c>
+      <c r="L111">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112">
+        <v>48174</v>
+      </c>
+      <c r="B112">
+        <v>240.87</v>
+      </c>
+      <c r="C112">
+        <v>239</v>
+      </c>
+      <c r="D112">
+        <v>239</v>
+      </c>
+      <c r="E112">
+        <v>1157.209145728642</v>
+      </c>
+      <c r="F112">
+        <v>34.01777690750297</v>
+      </c>
+      <c r="G112">
+        <v>255</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>255</v>
+      </c>
+      <c r="J112">
+        <v>239</v>
+      </c>
+      <c r="K112">
+        <v>239</v>
+      </c>
+      <c r="L112">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113">
+        <v>48214</v>
+      </c>
+      <c r="B113">
+        <v>241.07</v>
+      </c>
+      <c r="C113">
+        <v>239</v>
+      </c>
+      <c r="D113">
+        <v>239</v>
+      </c>
+      <c r="E113">
+        <v>1093.552864321609</v>
+      </c>
+      <c r="F113">
+        <v>33.06891084268742</v>
+      </c>
+      <c r="G113">
+        <v>255</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>255</v>
+      </c>
+      <c r="J113">
+        <v>239</v>
+      </c>
+      <c r="K113">
+        <v>239</v>
+      </c>
+      <c r="L113">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114">
+        <v>48204</v>
+      </c>
+      <c r="B114">
+        <v>241.02</v>
+      </c>
+      <c r="C114">
+        <v>239</v>
+      </c>
+      <c r="D114">
+        <v>239</v>
+      </c>
+      <c r="E114">
+        <v>1098.964422110554</v>
+      </c>
+      <c r="F114">
+        <v>33.15063230332951</v>
+      </c>
+      <c r="G114">
+        <v>255</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>255</v>
+      </c>
+      <c r="J114">
+        <v>239</v>
+      </c>
+      <c r="K114">
+        <v>239</v>
+      </c>
+      <c r="L114">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115">
+        <v>48222</v>
+      </c>
+      <c r="B115">
+        <v>241.11</v>
+      </c>
+      <c r="C115">
+        <v>239</v>
+      </c>
+      <c r="D115">
+        <v>239</v>
+      </c>
+      <c r="E115">
+        <v>1073.143618090451</v>
+      </c>
+      <c r="F115">
+        <v>32.75887083051629</v>
+      </c>
+      <c r="G115">
+        <v>253</v>
+      </c>
+      <c r="H115">
+        <v>2</v>
+      </c>
+      <c r="I115">
+        <v>255</v>
+      </c>
+      <c r="J115">
+        <v>239</v>
+      </c>
+      <c r="K115">
+        <v>239</v>
+      </c>
+      <c r="L115">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116">
+        <v>48242</v>
+      </c>
+      <c r="B116">
+        <v>241.21</v>
+      </c>
+      <c r="C116">
+        <v>239</v>
+      </c>
+      <c r="D116">
+        <v>239</v>
+      </c>
+      <c r="E116">
+        <v>1037.402914572861</v>
+      </c>
+      <c r="F116">
+        <v>32.20873972344868</v>
+      </c>
+      <c r="G116">
+        <v>248</v>
+      </c>
+      <c r="H116">
+        <v>7</v>
+      </c>
+      <c r="I116">
+        <v>255</v>
+      </c>
+      <c r="J116">
+        <v>239</v>
+      </c>
+      <c r="K116">
+        <v>239</v>
+      </c>
+      <c r="L116">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117">
+        <v>48229</v>
+      </c>
+      <c r="B117">
+        <v>241.145</v>
+      </c>
+      <c r="C117">
+        <v>239</v>
+      </c>
+      <c r="D117">
+        <v>239</v>
+      </c>
+      <c r="E117">
+        <v>1036.406005025123</v>
+      </c>
+      <c r="F117">
+        <v>32.19326024224827</v>
+      </c>
+      <c r="G117">
+        <v>240</v>
+      </c>
+      <c r="H117">
+        <v>15</v>
+      </c>
+      <c r="I117">
+        <v>255</v>
+      </c>
+      <c r="J117">
+        <v>239</v>
+      </c>
+      <c r="K117">
+        <v>239</v>
+      </c>
+      <c r="L117">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118">
+        <v>48211</v>
+      </c>
+      <c r="B118">
+        <v>241.055</v>
+      </c>
+      <c r="C118">
+        <v>239</v>
+      </c>
+      <c r="D118">
+        <v>239</v>
+      </c>
+      <c r="E118">
+        <v>1109.670326633167</v>
+      </c>
+      <c r="F118">
+        <v>33.3117145555909</v>
+      </c>
+      <c r="G118">
+        <v>247</v>
+      </c>
+      <c r="H118">
+        <v>8</v>
+      </c>
+      <c r="I118">
+        <v>255</v>
+      </c>
+      <c r="J118">
+        <v>239</v>
+      </c>
+      <c r="K118">
+        <v>239</v>
+      </c>
+      <c r="L118">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119">
+        <v>48196</v>
+      </c>
+      <c r="B119">
+        <v>240.98</v>
+      </c>
+      <c r="C119">
+        <v>239</v>
+      </c>
+      <c r="D119">
+        <v>255</v>
+      </c>
+      <c r="E119">
+        <v>1169.15537688442</v>
+      </c>
+      <c r="F119">
+        <v>34.19291413267404</v>
+      </c>
+      <c r="G119">
+        <v>255</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>255</v>
+      </c>
+      <c r="J119">
+        <v>239</v>
+      </c>
+      <c r="K119">
+        <v>239</v>
+      </c>
+      <c r="L119">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120">
+        <v>48191</v>
+      </c>
+      <c r="B120">
+        <v>240.955</v>
+      </c>
+      <c r="C120">
+        <v>239</v>
+      </c>
+      <c r="D120">
+        <v>255</v>
+      </c>
+      <c r="E120">
+        <v>1183.319572864323</v>
+      </c>
+      <c r="F120">
+        <v>34.3994123912651</v>
+      </c>
+      <c r="G120">
+        <v>254</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>255</v>
+      </c>
+      <c r="J120">
+        <v>239</v>
+      </c>
+      <c r="K120">
+        <v>239</v>
+      </c>
+      <c r="L120">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121">
+        <v>48208</v>
+      </c>
+      <c r="B121">
+        <v>241.04</v>
+      </c>
+      <c r="C121">
+        <v>239</v>
+      </c>
+      <c r="D121">
+        <v>255</v>
+      </c>
+      <c r="E121">
+        <v>1132.510954773871</v>
+      </c>
+      <c r="F121">
+        <v>33.65280010302072</v>
+      </c>
+      <c r="G121">
+        <v>249</v>
+      </c>
+      <c r="H121">
+        <v>6</v>
+      </c>
+      <c r="I121">
+        <v>255</v>
+      </c>
+      <c r="J121">
+        <v>239</v>
+      </c>
+      <c r="K121">
+        <v>239</v>
+      </c>
+      <c r="L121">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122">
+        <v>48214</v>
+      </c>
+      <c r="B122">
+        <v>241.07</v>
+      </c>
+      <c r="C122">
+        <v>239.5</v>
+      </c>
+      <c r="D122">
+        <v>255</v>
+      </c>
+      <c r="E122">
+        <v>1138.005125628142</v>
+      </c>
+      <c r="F122">
+        <v>33.73433155745259</v>
+      </c>
+      <c r="G122">
+        <v>245</v>
+      </c>
+      <c r="H122">
+        <v>10</v>
+      </c>
+      <c r="I122">
+        <v>255</v>
+      </c>
+      <c r="J122">
+        <v>239</v>
+      </c>
+      <c r="K122">
+        <v>239.5</v>
+      </c>
+      <c r="L122">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123">
+        <v>48215</v>
+      </c>
+      <c r="B123">
+        <v>241.075</v>
+      </c>
+      <c r="C123">
+        <v>239</v>
+      </c>
+      <c r="D123">
+        <v>255</v>
+      </c>
+      <c r="E123">
+        <v>1141.999371859297</v>
+      </c>
+      <c r="F123">
+        <v>33.79348120361821</v>
+      </c>
+      <c r="G123">
+        <v>255</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>255</v>
+      </c>
+      <c r="J123">
+        <v>239</v>
+      </c>
+      <c r="K123">
+        <v>239</v>
+      </c>
+      <c r="L123">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124">
+        <v>48202</v>
+      </c>
+      <c r="B124">
+        <v>241.01</v>
+      </c>
+      <c r="C124">
+        <v>239</v>
+      </c>
+      <c r="D124">
+        <v>255</v>
+      </c>
+      <c r="E124">
+        <v>1159.50743718593</v>
+      </c>
+      <c r="F124">
+        <v>34.05154089297473</v>
+      </c>
+      <c r="G124">
+        <v>255</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>255</v>
+      </c>
+      <c r="J124">
+        <v>239</v>
+      </c>
+      <c r="K124">
+        <v>239</v>
+      </c>
+      <c r="L124">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125">
+        <v>48172</v>
+      </c>
+      <c r="B125">
+        <v>240.86</v>
+      </c>
+      <c r="C125">
+        <v>240.5</v>
+      </c>
+      <c r="D125">
+        <v>255</v>
+      </c>
+      <c r="E125">
+        <v>1270.935075376889</v>
+      </c>
+      <c r="F125">
+        <v>35.6501763723111</v>
+      </c>
+      <c r="G125">
+        <v>255</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>255</v>
+      </c>
+      <c r="J125">
+        <v>239</v>
+      </c>
+      <c r="K125">
+        <v>240.5</v>
+      </c>
+      <c r="L125">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126">
+        <v>48155</v>
+      </c>
+      <c r="B126">
+        <v>240.775</v>
+      </c>
+      <c r="C126">
+        <v>241.5</v>
+      </c>
+      <c r="D126">
+        <v>255</v>
+      </c>
+      <c r="E126">
+        <v>1349.170226130653</v>
+      </c>
+      <c r="F126">
+        <v>36.73105261397573</v>
+      </c>
+      <c r="G126">
+        <v>255</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>255</v>
+      </c>
+      <c r="J126">
+        <v>239</v>
+      </c>
+      <c r="K126">
+        <v>241.5</v>
+      </c>
+      <c r="L126">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127">
+        <v>48174</v>
+      </c>
+      <c r="B127">
+        <v>240.87</v>
+      </c>
+      <c r="C127">
+        <v>240</v>
+      </c>
+      <c r="D127">
+        <v>255</v>
+      </c>
+      <c r="E127">
+        <v>1297.098592964824</v>
+      </c>
+      <c r="F127">
+        <v>36.01525500346796</v>
+      </c>
+      <c r="G127">
+        <v>255</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>255</v>
+      </c>
+      <c r="J127">
+        <v>239</v>
+      </c>
+      <c r="K127">
+        <v>240</v>
+      </c>
+      <c r="L127">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128">
+        <v>48216</v>
+      </c>
+      <c r="B128">
+        <v>241.08</v>
+      </c>
+      <c r="C128">
+        <v>239</v>
+      </c>
+      <c r="D128">
+        <v>255</v>
+      </c>
+      <c r="E128">
+        <v>1199.852864321609</v>
+      </c>
+      <c r="F128">
+        <v>34.63889236568642</v>
+      </c>
+      <c r="G128">
+        <v>255</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>255</v>
+      </c>
+      <c r="J128">
+        <v>239</v>
+      </c>
+      <c r="K128">
+        <v>239</v>
+      </c>
+      <c r="L128">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129">
+        <v>48190</v>
+      </c>
+      <c r="B129">
+        <v>240.95</v>
+      </c>
+      <c r="C129">
+        <v>240</v>
+      </c>
+      <c r="D129">
+        <v>255</v>
+      </c>
+      <c r="E129">
+        <v>1295.826633165831</v>
+      </c>
+      <c r="F129">
+        <v>35.99759204677211</v>
+      </c>
+      <c r="G129">
+        <v>255</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>255</v>
+      </c>
+      <c r="J129">
+        <v>239</v>
+      </c>
+      <c r="K129">
+        <v>240</v>
+      </c>
+      <c r="L129">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130">
+        <v>48195</v>
+      </c>
+      <c r="B130">
+        <v>240.975</v>
+      </c>
+      <c r="C130">
+        <v>246</v>
+      </c>
+      <c r="D130">
+        <v>255</v>
+      </c>
+      <c r="E130">
+        <v>1281.532035175876</v>
+      </c>
+      <c r="F130">
+        <v>35.7984920796376</v>
+      </c>
+      <c r="G130">
+        <v>255</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>255</v>
+      </c>
+      <c r="J130">
+        <v>239</v>
+      </c>
+      <c r="K130">
+        <v>246</v>
+      </c>
+      <c r="L130">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131">
+        <v>48201</v>
+      </c>
+      <c r="B131">
+        <v>241.005</v>
+      </c>
+      <c r="C131">
+        <v>250.5</v>
+      </c>
+      <c r="D131">
+        <v>255</v>
+      </c>
+      <c r="E131">
+        <v>1265.592939698495</v>
+      </c>
+      <c r="F131">
+        <v>35.57517308037299</v>
+      </c>
+      <c r="G131">
+        <v>255</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>255</v>
+      </c>
+      <c r="J131">
+        <v>239</v>
+      </c>
+      <c r="K131">
+        <v>250.5</v>
+      </c>
+      <c r="L131">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132">
+        <v>48207</v>
+      </c>
+      <c r="B132">
+        <v>241.035</v>
+      </c>
+      <c r="C132">
+        <v>255</v>
+      </c>
+      <c r="D132">
+        <v>255</v>
+      </c>
+      <c r="E132">
+        <v>1297.702286432162</v>
+      </c>
+      <c r="F132">
+        <v>36.02363510852509</v>
+      </c>
+      <c r="G132">
+        <v>255</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>255</v>
+      </c>
+      <c r="J132">
+        <v>239</v>
+      </c>
+      <c r="K132">
+        <v>255</v>
+      </c>
+      <c r="L132">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133">
+        <v>48202</v>
+      </c>
+      <c r="B133">
+        <v>241.01</v>
+      </c>
+      <c r="C133">
+        <v>255</v>
+      </c>
+      <c r="D133">
+        <v>255</v>
+      </c>
+      <c r="E133">
+        <v>1297.487336683418</v>
+      </c>
+      <c r="F133">
+        <v>36.02065153052368</v>
+      </c>
+      <c r="G133">
+        <v>255</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>255</v>
+      </c>
+      <c r="J133">
+        <v>239</v>
+      </c>
+      <c r="K133">
+        <v>255</v>
+      </c>
+      <c r="L133">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134">
+        <v>48219</v>
+      </c>
+      <c r="B134">
+        <v>241.095</v>
+      </c>
+      <c r="C134">
+        <v>255</v>
+      </c>
+      <c r="D134">
+        <v>255</v>
+      </c>
+      <c r="E134">
+        <v>1269.654246231155</v>
+      </c>
+      <c r="F134">
+        <v>35.63220798983912</v>
+      </c>
+      <c r="G134">
+        <v>255</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>255</v>
+      </c>
+      <c r="J134">
+        <v>239</v>
+      </c>
+      <c r="K134">
+        <v>255</v>
+      </c>
+      <c r="L134">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135">
+        <v>48236</v>
+      </c>
+      <c r="B135">
+        <v>241.18</v>
+      </c>
+      <c r="C135">
+        <v>255</v>
+      </c>
+      <c r="D135">
+        <v>255</v>
+      </c>
+      <c r="E135">
+        <v>1256.017688442207</v>
+      </c>
+      <c r="F135">
+        <v>35.44033984659581</v>
+      </c>
+      <c r="G135">
+        <v>251</v>
+      </c>
+      <c r="H135">
+        <v>4</v>
+      </c>
+      <c r="I135">
+        <v>255</v>
+      </c>
+      <c r="J135">
+        <v>239</v>
+      </c>
+      <c r="K135">
+        <v>255</v>
+      </c>
+      <c r="L135">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136">
+        <v>48241</v>
+      </c>
+      <c r="B136">
+        <v>241.205</v>
+      </c>
+      <c r="C136">
+        <v>255</v>
+      </c>
+      <c r="D136">
+        <v>255</v>
+      </c>
+      <c r="E136">
+        <v>1247.068316582916</v>
+      </c>
+      <c r="F136">
+        <v>35.31385445661399</v>
+      </c>
+      <c r="G136">
+        <v>253</v>
+      </c>
+      <c r="H136">
+        <v>2</v>
+      </c>
+      <c r="I136">
+        <v>255</v>
+      </c>
+      <c r="J136">
+        <v>239</v>
+      </c>
+      <c r="K136">
+        <v>255</v>
+      </c>
+      <c r="L136">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137">
+        <v>48251</v>
+      </c>
+      <c r="B137">
+        <v>241.255</v>
+      </c>
+      <c r="C137">
+        <v>255</v>
+      </c>
+      <c r="D137">
+        <v>255</v>
+      </c>
+      <c r="E137">
+        <v>1240.552738693465</v>
+      </c>
+      <c r="F137">
+        <v>35.22148121095229</v>
+      </c>
+      <c r="G137">
+        <v>254</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
+        <v>255</v>
+      </c>
+      <c r="J137">
+        <v>239</v>
+      </c>
+      <c r="K137">
+        <v>255</v>
+      </c>
+      <c r="L137">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138">
+        <v>48243</v>
+      </c>
+      <c r="B138">
+        <v>241.215</v>
+      </c>
+      <c r="C138">
+        <v>255</v>
+      </c>
+      <c r="D138">
+        <v>255</v>
+      </c>
+      <c r="E138">
+        <v>1290.591733668344</v>
+      </c>
+      <c r="F138">
+        <v>35.92480666153046</v>
+      </c>
+      <c r="G138">
+        <v>255</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>255</v>
+      </c>
+      <c r="J138">
+        <v>239</v>
+      </c>
+      <c r="K138">
+        <v>255</v>
+      </c>
+      <c r="L138">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139">
+        <v>48225</v>
+      </c>
+      <c r="B139">
+        <v>241.125</v>
+      </c>
+      <c r="C139">
+        <v>255</v>
+      </c>
+      <c r="D139">
+        <v>255</v>
+      </c>
+      <c r="E139">
+        <v>1338.099874371859</v>
+      </c>
+      <c r="F139">
+        <v>36.58004749001645</v>
+      </c>
+      <c r="G139">
+        <v>253</v>
+      </c>
+      <c r="H139">
+        <v>2</v>
+      </c>
+      <c r="I139">
+        <v>255</v>
+      </c>
+      <c r="J139">
+        <v>239</v>
+      </c>
+      <c r="K139">
+        <v>255</v>
+      </c>
+      <c r="L139">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140">
+        <v>48192</v>
+      </c>
+      <c r="B140">
+        <v>240.96</v>
+      </c>
+      <c r="C140">
+        <v>255</v>
+      </c>
+      <c r="D140">
+        <v>255</v>
+      </c>
+      <c r="E140">
+        <v>1412.139095477391</v>
+      </c>
+      <c r="F140">
+        <v>37.57843923684685</v>
+      </c>
+      <c r="G140">
+        <v>255</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>255</v>
+      </c>
+      <c r="J140">
+        <v>239</v>
+      </c>
+      <c r="K140">
+        <v>255</v>
+      </c>
+      <c r="L140">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141">
+        <v>48251</v>
+      </c>
+      <c r="B141">
+        <v>241.255</v>
+      </c>
+      <c r="C141">
+        <v>255</v>
+      </c>
+      <c r="D141">
+        <v>255</v>
+      </c>
+      <c r="E141">
+        <v>1323.29645728643</v>
+      </c>
+      <c r="F141">
+        <v>36.37714196149047</v>
+      </c>
+      <c r="G141">
+        <v>255</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>255</v>
+      </c>
+      <c r="J141">
+        <v>239</v>
+      </c>
+      <c r="K141">
+        <v>255</v>
+      </c>
+      <c r="L141">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142">
+        <v>48235</v>
+      </c>
+      <c r="B142">
+        <v>241.175</v>
+      </c>
+      <c r="C142">
+        <v>255</v>
+      </c>
+      <c r="D142">
+        <v>255</v>
+      </c>
+      <c r="E142">
+        <v>1373.341080402006</v>
+      </c>
+      <c r="F142">
+        <v>37.05861681717231</v>
+      </c>
+      <c r="G142">
+        <v>255</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>255</v>
+      </c>
+      <c r="J142">
+        <v>239</v>
+      </c>
+      <c r="K142">
+        <v>255</v>
+      </c>
+      <c r="L142">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143">
+        <v>48204</v>
+      </c>
+      <c r="B143">
+        <v>241.02</v>
+      </c>
+      <c r="C143">
+        <v>255</v>
+      </c>
+      <c r="D143">
+        <v>255</v>
+      </c>
+      <c r="E143">
+        <v>1456.823718592974</v>
+      </c>
+      <c r="F143">
+        <v>38.16836017689224</v>
+      </c>
+      <c r="G143">
+        <v>255</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>255</v>
+      </c>
+      <c r="J143">
+        <v>239</v>
+      </c>
+      <c r="K143">
+        <v>255</v>
+      </c>
+      <c r="L143">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144">
+        <v>48251</v>
+      </c>
+      <c r="B144">
+        <v>241.255</v>
+      </c>
+      <c r="C144">
+        <v>255</v>
+      </c>
+      <c r="D144">
+        <v>255</v>
+      </c>
+      <c r="E144">
+        <v>1387.376859296487</v>
+      </c>
+      <c r="F144">
+        <v>37.24750809512614</v>
+      </c>
+      <c r="G144">
+        <v>255</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>255</v>
+      </c>
+      <c r="J144">
+        <v>239</v>
+      </c>
+      <c r="K144">
+        <v>255</v>
+      </c>
+      <c r="L144">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145">
+        <v>48223</v>
+      </c>
+      <c r="B145">
+        <v>241.115</v>
+      </c>
+      <c r="C145">
+        <v>255</v>
+      </c>
+      <c r="D145">
+        <v>255</v>
+      </c>
+      <c r="E145">
+        <v>1428.313341708533</v>
+      </c>
+      <c r="F145">
+        <v>37.79303297842782</v>
+      </c>
+      <c r="G145">
+        <v>255</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>255</v>
+      </c>
+      <c r="J145">
+        <v>239</v>
+      </c>
+      <c r="K145">
+        <v>255</v>
+      </c>
+      <c r="L145">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146">
+        <v>48211</v>
+      </c>
+      <c r="B146">
+        <v>241.055</v>
+      </c>
+      <c r="C146">
+        <v>255</v>
+      </c>
+      <c r="D146">
+        <v>255</v>
+      </c>
+      <c r="E146">
+        <v>1417.610025125629</v>
+      </c>
+      <c r="F146">
+        <v>37.65116233432414</v>
+      </c>
+      <c r="G146">
+        <v>255</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>255</v>
+      </c>
+      <c r="J146">
+        <v>239</v>
+      </c>
+      <c r="K146">
+        <v>255</v>
+      </c>
+      <c r="L146">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147">
+        <v>48219</v>
+      </c>
+      <c r="B147">
+        <v>241.095</v>
+      </c>
+      <c r="C147">
+        <v>255</v>
+      </c>
+      <c r="D147">
+        <v>255</v>
+      </c>
+      <c r="E147">
+        <v>1441.181884422116</v>
+      </c>
+      <c r="F147">
+        <v>37.96290142260094</v>
+      </c>
+      <c r="G147">
+        <v>255</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>255</v>
+      </c>
+      <c r="J147">
+        <v>239</v>
+      </c>
+      <c r="K147">
+        <v>255</v>
+      </c>
+      <c r="L147">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148">
+        <v>48243</v>
+      </c>
+      <c r="B148">
+        <v>241.215</v>
+      </c>
+      <c r="C148">
+        <v>255</v>
+      </c>
+      <c r="D148">
+        <v>255</v>
+      </c>
+      <c r="E148">
+        <v>1416.440979899497</v>
+      </c>
+      <c r="F148">
+        <v>37.63563444263292</v>
+      </c>
+      <c r="G148">
+        <v>255</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>255</v>
+      </c>
+      <c r="J148">
+        <v>239</v>
+      </c>
+      <c r="K148">
+        <v>255</v>
+      </c>
+      <c r="L148">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149">
+        <v>48265</v>
+      </c>
+      <c r="B149">
+        <v>241.325</v>
+      </c>
+      <c r="C149">
+        <v>255</v>
+      </c>
+      <c r="D149">
+        <v>255</v>
+      </c>
+      <c r="E149">
+        <v>1346.964195979897</v>
+      </c>
+      <c r="F149">
+        <v>36.70101083049208</v>
+      </c>
+      <c r="G149">
+        <v>255</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>255</v>
+      </c>
+      <c r="J149">
+        <v>239</v>
+      </c>
+      <c r="K149">
+        <v>255</v>
+      </c>
+      <c r="L149">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150">
+        <v>48285</v>
+      </c>
+      <c r="B150">
+        <v>241.425</v>
+      </c>
+      <c r="C150">
+        <v>255</v>
+      </c>
+      <c r="D150">
+        <v>255</v>
+      </c>
+      <c r="E150">
+        <v>1318.305904522619</v>
+      </c>
+      <c r="F150">
+        <v>36.30848254227404</v>
+      </c>
+      <c r="G150">
+        <v>253</v>
+      </c>
+      <c r="H150">
+        <v>2</v>
+      </c>
+      <c r="I150">
+        <v>255</v>
+      </c>
+      <c r="J150">
+        <v>239</v>
+      </c>
+      <c r="K150">
+        <v>255</v>
+      </c>
+      <c r="L150">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151">
+        <v>48303</v>
+      </c>
+      <c r="B151">
+        <v>241.515</v>
+      </c>
+      <c r="C151">
+        <v>255</v>
+      </c>
+      <c r="D151">
+        <v>255</v>
+      </c>
+      <c r="E151">
+        <v>1297.89927135678</v>
+      </c>
+      <c r="F151">
+        <v>36.0263691114825</v>
+      </c>
+      <c r="G151">
+        <v>250</v>
+      </c>
+      <c r="H151">
+        <v>5</v>
+      </c>
+      <c r="I151">
+        <v>255</v>
+      </c>
+      <c r="J151">
+        <v>239</v>
+      </c>
+      <c r="K151">
+        <v>255</v>
+      </c>
+      <c r="L151">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152">
+        <v>48293</v>
+      </c>
+      <c r="B152">
+        <v>241.465</v>
+      </c>
+      <c r="C152">
+        <v>255</v>
+      </c>
+      <c r="D152">
+        <v>255</v>
+      </c>
+      <c r="E152">
+        <v>1326.913341708541</v>
+      </c>
+      <c r="F152">
+        <v>36.42682173493236</v>
+      </c>
+      <c r="G152">
+        <v>254</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
+        <v>255</v>
+      </c>
+      <c r="J152">
+        <v>239</v>
+      </c>
+      <c r="K152">
+        <v>255</v>
+      </c>
+      <c r="L152">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153">
+        <v>48266</v>
+      </c>
+      <c r="B153">
+        <v>241.33</v>
+      </c>
+      <c r="C153">
+        <v>255</v>
+      </c>
+      <c r="D153">
+        <v>255</v>
+      </c>
+      <c r="E153">
+        <v>1380.463417085427</v>
+      </c>
+      <c r="F153">
+        <v>37.15458810275559</v>
+      </c>
+      <c r="G153">
+        <v>250</v>
+      </c>
+      <c r="H153">
+        <v>5</v>
+      </c>
+      <c r="I153">
+        <v>255</v>
+      </c>
+      <c r="J153">
+        <v>239</v>
+      </c>
+      <c r="K153">
+        <v>255</v>
+      </c>
+      <c r="L153">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154">
+        <v>48268</v>
+      </c>
+      <c r="B154">
+        <v>241.34</v>
+      </c>
+      <c r="C154">
+        <v>255</v>
+      </c>
+      <c r="D154">
+        <v>255</v>
+      </c>
+      <c r="E154">
+        <v>1402.637587939701</v>
+      </c>
+      <c r="F154">
+        <v>37.45180353387138</v>
+      </c>
+      <c r="G154">
+        <v>255</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>255</v>
+      </c>
+      <c r="J154">
+        <v>239</v>
+      </c>
+      <c r="K154">
+        <v>255</v>
+      </c>
+      <c r="L154">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155">
+        <v>48294</v>
+      </c>
+      <c r="B155">
+        <v>241.47</v>
+      </c>
+      <c r="C155">
+        <v>255</v>
+      </c>
+      <c r="D155">
+        <v>255</v>
+      </c>
+      <c r="E155">
+        <v>1410.069447236172</v>
+      </c>
+      <c r="F155">
+        <v>37.55089143064612</v>
+      </c>
+      <c r="G155">
+        <v>253</v>
+      </c>
+      <c r="H155">
+        <v>2</v>
+      </c>
+      <c r="I155">
+        <v>255</v>
+      </c>
+      <c r="J155">
+        <v>239</v>
+      </c>
+      <c r="K155">
+        <v>255</v>
+      </c>
+      <c r="L155">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156">
+        <v>48272</v>
+      </c>
+      <c r="B156">
+        <v>241.36</v>
+      </c>
+      <c r="C156">
+        <v>255</v>
+      </c>
+      <c r="D156">
+        <v>255</v>
+      </c>
+      <c r="E156">
+        <v>1447.568241206034</v>
+      </c>
+      <c r="F156">
+        <v>38.04692157331567</v>
+      </c>
+      <c r="G156">
+        <v>252</v>
+      </c>
+      <c r="H156">
+        <v>3</v>
+      </c>
+      <c r="I156">
+        <v>255</v>
+      </c>
+      <c r="J156">
+        <v>239</v>
+      </c>
+      <c r="K156">
+        <v>255</v>
+      </c>
+      <c r="L156">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157">
+        <v>48251</v>
+      </c>
+      <c r="B157">
+        <v>241.255</v>
+      </c>
+      <c r="C157">
+        <v>255</v>
+      </c>
+      <c r="D157">
+        <v>255</v>
+      </c>
+      <c r="E157">
+        <v>1456.944698492466</v>
+      </c>
+      <c r="F157">
+        <v>38.16994496318362</v>
+      </c>
+      <c r="G157">
+        <v>255</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>255</v>
+      </c>
+      <c r="J157">
+        <v>239</v>
+      </c>
+      <c r="K157">
+        <v>255</v>
+      </c>
+      <c r="L157">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158">
+        <v>48268</v>
+      </c>
+      <c r="B158">
+        <v>241.34</v>
+      </c>
+      <c r="C158">
+        <v>255</v>
+      </c>
+      <c r="D158">
+        <v>255</v>
+      </c>
+      <c r="E158">
+        <v>1454.617487437188</v>
+      </c>
+      <c r="F158">
+        <v>38.13944791730982</v>
+      </c>
+      <c r="G158">
+        <v>255</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>255</v>
+      </c>
+      <c r="J158">
+        <v>239</v>
+      </c>
+      <c r="K158">
+        <v>255</v>
+      </c>
+      <c r="L158">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159">
+        <v>48319</v>
+      </c>
+      <c r="B159">
+        <v>241.595</v>
+      </c>
+      <c r="C159">
+        <v>255</v>
+      </c>
+      <c r="D159">
+        <v>255</v>
+      </c>
+      <c r="E159">
+        <v>1410.36278894472</v>
+      </c>
+      <c r="F159">
+        <v>37.55479714956161</v>
+      </c>
+      <c r="G159">
+        <v>253</v>
+      </c>
+      <c r="H159">
+        <v>2</v>
+      </c>
+      <c r="I159">
+        <v>255</v>
+      </c>
+      <c r="J159">
+        <v>239</v>
+      </c>
+      <c r="K159">
+        <v>255</v>
+      </c>
+      <c r="L159">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="A160">
+        <v>48303</v>
+      </c>
+      <c r="B160">
+        <v>241.515</v>
+      </c>
+      <c r="C160">
+        <v>255</v>
+      </c>
+      <c r="D160">
+        <v>255</v>
+      </c>
+      <c r="E160">
+        <v>1411.487211055278</v>
+      </c>
+      <c r="F160">
+        <v>37.56976458610406</v>
+      </c>
+      <c r="G160">
+        <v>248</v>
+      </c>
+      <c r="H160">
+        <v>7</v>
+      </c>
+      <c r="I160">
+        <v>255</v>
+      </c>
+      <c r="J160">
+        <v>239</v>
+      </c>
+      <c r="K160">
+        <v>255</v>
+      </c>
+      <c r="L160">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="A161">
+        <v>48294</v>
+      </c>
+      <c r="B161">
+        <v>241.47</v>
+      </c>
+      <c r="C161">
+        <v>255</v>
+      </c>
+      <c r="D161">
+        <v>255</v>
+      </c>
+      <c r="E161">
+        <v>1421.486532663308</v>
+      </c>
+      <c r="F161">
+        <v>37.70260644389599</v>
+      </c>
+      <c r="G161">
+        <v>255</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>255</v>
+      </c>
+      <c r="J161">
+        <v>239</v>
+      </c>
+      <c r="K161">
+        <v>255</v>
+      </c>
+      <c r="L161">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="A162">
+        <v>48299</v>
+      </c>
+      <c r="B162">
+        <v>241.495</v>
+      </c>
+      <c r="C162">
+        <v>255</v>
+      </c>
+      <c r="D162">
+        <v>255</v>
+      </c>
+      <c r="E162">
+        <v>1429.778869346739</v>
+      </c>
+      <c r="F162">
+        <v>37.81241686730351</v>
+      </c>
+      <c r="G162">
+        <v>242</v>
+      </c>
+      <c r="H162">
+        <v>13</v>
+      </c>
+      <c r="I162">
+        <v>255</v>
+      </c>
+      <c r="J162">
+        <v>239</v>
+      </c>
+      <c r="K162">
+        <v>255</v>
+      </c>
+      <c r="L162">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
+      <c r="A163">
+        <v>48330</v>
+      </c>
+      <c r="B163">
+        <v>241.65</v>
+      </c>
+      <c r="C163">
+        <v>255</v>
+      </c>
+      <c r="D163">
+        <v>255</v>
+      </c>
+      <c r="E163">
+        <v>1428.871859296472</v>
+      </c>
+      <c r="F163">
+        <v>37.8004214169164</v>
+      </c>
+      <c r="G163">
+        <v>255</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>255</v>
+      </c>
+      <c r="J163">
+        <v>239</v>
+      </c>
+      <c r="K163">
+        <v>255</v>
+      </c>
+      <c r="L163">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
+      <c r="A164">
+        <v>48321</v>
+      </c>
+      <c r="B164">
+        <v>241.605</v>
+      </c>
+      <c r="C164">
+        <v>255</v>
+      </c>
+      <c r="D164">
+        <v>255</v>
+      </c>
+      <c r="E164">
+        <v>1419.82811557789</v>
+      </c>
+      <c r="F164">
+        <v>37.68060662433516</v>
+      </c>
+      <c r="G164">
+        <v>243</v>
+      </c>
+      <c r="H164">
+        <v>12</v>
+      </c>
+      <c r="I164">
+        <v>255</v>
+      </c>
+      <c r="J164">
+        <v>239</v>
+      </c>
+      <c r="K164">
+        <v>255</v>
+      </c>
+      <c r="L164">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
+      <c r="A165">
+        <v>48317</v>
+      </c>
+      <c r="B165">
+        <v>241.585</v>
+      </c>
+      <c r="C165">
+        <v>255</v>
+      </c>
+      <c r="D165">
+        <v>255</v>
+      </c>
+      <c r="E165">
+        <v>1421.92238693468</v>
+      </c>
+      <c r="F165">
+        <v>37.70838616189614</v>
+      </c>
+      <c r="G165">
+        <v>255</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>255</v>
+      </c>
+      <c r="J165">
+        <v>239</v>
+      </c>
+      <c r="K165">
+        <v>255</v>
+      </c>
+      <c r="L165">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="A166">
+        <v>48319</v>
+      </c>
+      <c r="B166">
+        <v>241.595</v>
+      </c>
+      <c r="C166">
+        <v>255</v>
+      </c>
+      <c r="D166">
+        <v>255</v>
+      </c>
+      <c r="E166">
+        <v>1475.860276381906</v>
+      </c>
+      <c r="F166">
+        <v>38.41692695130502</v>
+      </c>
+      <c r="G166">
+        <v>247</v>
+      </c>
+      <c r="H166">
+        <v>8</v>
+      </c>
+      <c r="I166">
+        <v>255</v>
+      </c>
+      <c r="J166">
+        <v>239</v>
+      </c>
+      <c r="K166">
+        <v>255</v>
+      </c>
+      <c r="L166">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167">
+        <v>48308</v>
+      </c>
+      <c r="B167">
+        <v>241.54</v>
+      </c>
+      <c r="C167">
+        <v>255</v>
+      </c>
+      <c r="D167">
+        <v>255</v>
+      </c>
+      <c r="E167">
+        <v>1576.711959798996</v>
+      </c>
+      <c r="F167">
+        <v>39.70783247419828</v>
+      </c>
+      <c r="G167">
+        <v>254</v>
+      </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
+      <c r="I167">
+        <v>255</v>
+      </c>
+      <c r="J167">
+        <v>239</v>
+      </c>
+      <c r="K167">
+        <v>255</v>
+      </c>
+      <c r="L167">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
+      <c r="A168">
+        <v>48305</v>
+      </c>
+      <c r="B168">
+        <v>241.525</v>
+      </c>
+      <c r="C168">
+        <v>255</v>
+      </c>
+      <c r="D168">
+        <v>255</v>
+      </c>
+      <c r="E168">
+        <v>1541.295854271352</v>
+      </c>
+      <c r="F168">
+        <v>39.25934098111367</v>
+      </c>
+      <c r="G168">
+        <v>247</v>
+      </c>
+      <c r="H168">
+        <v>8</v>
+      </c>
+      <c r="I168">
+        <v>255</v>
+      </c>
+      <c r="J168">
+        <v>239</v>
+      </c>
+      <c r="K168">
+        <v>255</v>
+      </c>
+      <c r="L168">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
+      <c r="A169">
+        <v>48316</v>
+      </c>
+      <c r="B169">
+        <v>241.58</v>
+      </c>
+      <c r="C169">
+        <v>255</v>
+      </c>
+      <c r="D169">
+        <v>255</v>
+      </c>
+      <c r="E169">
+        <v>1542.847839195976</v>
+      </c>
+      <c r="F169">
+        <v>39.27910181249026</v>
+      </c>
+      <c r="G169">
+        <v>252</v>
+      </c>
+      <c r="H169">
+        <v>3</v>
+      </c>
+      <c r="I169">
+        <v>255</v>
+      </c>
+      <c r="J169">
+        <v>239</v>
+      </c>
+      <c r="K169">
+        <v>255</v>
+      </c>
+      <c r="L169">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
+      <c r="A170">
+        <v>48324</v>
+      </c>
+      <c r="B170">
+        <v>241.62</v>
+      </c>
+      <c r="C170">
+        <v>255</v>
+      </c>
+      <c r="D170">
+        <v>255</v>
+      </c>
+      <c r="E170">
+        <v>1558.216683417081</v>
+      </c>
+      <c r="F170">
+        <v>39.47425342444213</v>
+      </c>
+      <c r="G170">
+        <v>254</v>
+      </c>
+      <c r="H170">
+        <v>1</v>
+      </c>
+      <c r="I170">
+        <v>255</v>
+      </c>
+      <c r="J170">
+        <v>239</v>
+      </c>
+      <c r="K170">
+        <v>255</v>
+      </c>
+      <c r="L170">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
+      <c r="A171">
+        <v>48299</v>
+      </c>
+      <c r="B171">
+        <v>241.495</v>
+      </c>
+      <c r="C171">
+        <v>255</v>
+      </c>
+      <c r="D171">
+        <v>255</v>
+      </c>
+      <c r="E171">
+        <v>1622.884396984931</v>
+      </c>
+      <c r="F171">
+        <v>40.2850393692861</v>
+      </c>
+      <c r="G171">
+        <v>252</v>
+      </c>
+      <c r="H171">
+        <v>3</v>
+      </c>
+      <c r="I171">
+        <v>255</v>
+      </c>
+      <c r="J171">
+        <v>239</v>
+      </c>
+      <c r="K171">
+        <v>255</v>
+      </c>
+      <c r="L171">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="A172">
+        <v>48299</v>
+      </c>
+      <c r="B172">
+        <v>241.495</v>
+      </c>
+      <c r="C172">
+        <v>255</v>
+      </c>
+      <c r="D172">
+        <v>255</v>
+      </c>
+      <c r="E172">
+        <v>1617.447211055283</v>
+      </c>
+      <c r="F172">
+        <v>40.21749881650129</v>
+      </c>
+      <c r="G172">
+        <v>254</v>
+      </c>
+      <c r="H172">
+        <v>1</v>
+      </c>
+      <c r="I172">
+        <v>255</v>
+      </c>
+      <c r="J172">
+        <v>239</v>
+      </c>
+      <c r="K172">
+        <v>255</v>
+      </c>
+      <c r="L172">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
+      <c r="A173">
+        <v>48272</v>
+      </c>
+      <c r="B173">
+        <v>241.36</v>
+      </c>
+      <c r="C173">
+        <v>255</v>
+      </c>
+      <c r="D173">
+        <v>255</v>
+      </c>
+      <c r="E173">
+        <v>1671.296884422117</v>
+      </c>
+      <c r="F173">
+        <v>40.88149806969061</v>
+      </c>
+      <c r="G173">
+        <v>252</v>
+      </c>
+      <c r="H173">
+        <v>3</v>
+      </c>
+      <c r="I173">
+        <v>255</v>
+      </c>
+      <c r="J173">
+        <v>239</v>
+      </c>
+      <c r="K173">
+        <v>255</v>
+      </c>
+      <c r="L173">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
+      <c r="A174">
+        <v>48233</v>
+      </c>
+      <c r="B174">
+        <v>241.165</v>
+      </c>
+      <c r="C174">
+        <v>255</v>
+      </c>
+      <c r="D174">
+        <v>255</v>
+      </c>
+      <c r="E174">
+        <v>1799.153542713559</v>
+      </c>
+      <c r="F174">
+        <v>42.41643010336394</v>
+      </c>
+      <c r="G174">
+        <v>255</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>255</v>
+      </c>
+      <c r="J174">
+        <v>239</v>
+      </c>
+      <c r="K174">
+        <v>255</v>
+      </c>
+      <c r="L174">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
+      <c r="A175">
+        <v>48189</v>
+      </c>
+      <c r="B175">
+        <v>240.945</v>
+      </c>
+      <c r="C175">
+        <v>255</v>
+      </c>
+      <c r="D175">
+        <v>255</v>
+      </c>
+      <c r="E175">
+        <v>1945.780879396995</v>
+      </c>
+      <c r="F175">
+        <v>44.11100632945247</v>
+      </c>
+      <c r="G175">
+        <v>254</v>
+      </c>
+      <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="I175">
+        <v>255</v>
+      </c>
+      <c r="J175">
+        <v>239</v>
+      </c>
+      <c r="K175">
+        <v>255</v>
+      </c>
+      <c r="L175">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
+      <c r="A176">
+        <v>48172</v>
+      </c>
+      <c r="B176">
+        <v>240.86</v>
+      </c>
+      <c r="C176">
+        <v>255</v>
+      </c>
+      <c r="D176">
+        <v>255</v>
+      </c>
+      <c r="E176">
+        <v>1857.63859296482</v>
+      </c>
+      <c r="F176">
+        <v>43.10033170365188</v>
+      </c>
+      <c r="G176">
+        <v>255</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>255</v>
+      </c>
+      <c r="J176">
+        <v>239</v>
+      </c>
+      <c r="K176">
+        <v>255</v>
+      </c>
+      <c r="L176">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
+      <c r="A177">
+        <v>48176</v>
+      </c>
+      <c r="B177">
+        <v>240.88</v>
+      </c>
+      <c r="C177">
+        <v>255</v>
+      </c>
+      <c r="D177">
+        <v>255</v>
+      </c>
+      <c r="E177">
+        <v>1855.452864321599</v>
+      </c>
+      <c r="F177">
+        <v>43.07496795496892</v>
+      </c>
+      <c r="G177">
+        <v>255</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>255</v>
+      </c>
+      <c r="J177">
+        <v>239</v>
+      </c>
+      <c r="K177">
+        <v>255</v>
+      </c>
+      <c r="L177">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
+      <c r="A178">
+        <v>48181</v>
+      </c>
+      <c r="B178">
+        <v>240.905</v>
+      </c>
+      <c r="C178">
+        <v>255</v>
+      </c>
+      <c r="D178">
+        <v>255</v>
+      </c>
+      <c r="E178">
+        <v>1909.875351758798</v>
+      </c>
+      <c r="F178">
+        <v>43.70212067804945</v>
+      </c>
+      <c r="G178">
+        <v>253</v>
+      </c>
+      <c r="H178">
+        <v>2</v>
+      </c>
+      <c r="I178">
+        <v>255</v>
+      </c>
+      <c r="J178">
+        <v>239</v>
+      </c>
+      <c r="K178">
+        <v>255</v>
+      </c>
+      <c r="L178">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
+      <c r="A179">
+        <v>48138</v>
+      </c>
+      <c r="B179">
+        <v>240.69</v>
+      </c>
+      <c r="C179">
+        <v>255</v>
+      </c>
+      <c r="D179">
+        <v>255</v>
+      </c>
+      <c r="E179">
+        <v>1982.69738693468</v>
+      </c>
+      <c r="F179">
+        <v>44.52749023844349</v>
+      </c>
+      <c r="G179">
+        <v>254</v>
+      </c>
+      <c r="H179">
+        <v>1</v>
+      </c>
+      <c r="I179">
+        <v>255</v>
+      </c>
+      <c r="J179">
+        <v>239</v>
+      </c>
+      <c r="K179">
+        <v>255</v>
+      </c>
+      <c r="L179">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
+      <c r="A180">
+        <v>48061</v>
+      </c>
+      <c r="B180">
+        <v>240.305</v>
+      </c>
+      <c r="C180">
+        <v>255</v>
+      </c>
+      <c r="D180">
+        <v>255</v>
+      </c>
+      <c r="E180">
+        <v>2042.685402010044</v>
+      </c>
+      <c r="F180">
+        <v>45.19607728564554</v>
+      </c>
+      <c r="G180">
+        <v>255</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>255</v>
+      </c>
+      <c r="J180">
+        <v>239.75</v>
+      </c>
+      <c r="K180">
+        <v>255</v>
+      </c>
+      <c r="L180">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
+      <c r="A181">
+        <v>47957</v>
+      </c>
+      <c r="B181">
+        <v>239.785</v>
+      </c>
+      <c r="C181">
+        <v>255</v>
+      </c>
+      <c r="D181">
+        <v>255</v>
+      </c>
+      <c r="E181">
+        <v>2148.280175879401</v>
+      </c>
+      <c r="F181">
+        <v>46.34954342687101</v>
+      </c>
+      <c r="G181">
+        <v>253</v>
+      </c>
+      <c r="H181">
+        <v>2</v>
+      </c>
+      <c r="I181">
+        <v>255</v>
+      </c>
+      <c r="J181">
+        <v>240</v>
+      </c>
+      <c r="K181">
+        <v>255</v>
+      </c>
+      <c r="L181">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
+      <c r="A182">
+        <v>47816</v>
+      </c>
+      <c r="B182">
+        <v>239.08</v>
+      </c>
+      <c r="C182">
+        <v>255</v>
+      </c>
+      <c r="D182">
+        <v>255</v>
+      </c>
+      <c r="E182">
+        <v>2468.365427135686</v>
+      </c>
+      <c r="F182">
+        <v>49.68264714299839</v>
+      </c>
+      <c r="G182">
+        <v>255</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>255</v>
+      </c>
+      <c r="J182">
+        <v>239.75</v>
+      </c>
+      <c r="K182">
+        <v>255</v>
+      </c>
+      <c r="L182">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
+      <c r="A183">
+        <v>47578</v>
+      </c>
+      <c r="B183">
+        <v>237.89</v>
+      </c>
+      <c r="C183">
+        <v>255</v>
+      </c>
+      <c r="D183">
+        <v>255</v>
+      </c>
+      <c r="E183">
+        <v>2518.038090452258</v>
+      </c>
+      <c r="F183">
+        <v>50.1800567003691</v>
+      </c>
+      <c r="G183">
+        <v>255</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>255</v>
+      </c>
+      <c r="J183">
+        <v>241.75</v>
+      </c>
+      <c r="K183">
+        <v>255</v>
+      </c>
+      <c r="L183">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
+      <c r="A184">
+        <v>46673</v>
+      </c>
+      <c r="B184">
+        <v>233.365</v>
+      </c>
+      <c r="C184">
+        <v>255</v>
+      </c>
+      <c r="D184">
+        <v>255</v>
+      </c>
+      <c r="E184">
+        <v>2845.368618090431</v>
+      </c>
+      <c r="F184">
+        <v>53.34199675762458</v>
+      </c>
+      <c r="G184">
+        <v>255</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>255</v>
+      </c>
+      <c r="J184">
+        <v>242</v>
+      </c>
+      <c r="K184">
+        <v>255</v>
+      </c>
+      <c r="L184">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
+      <c r="A185">
+        <v>45470</v>
+      </c>
+      <c r="B185">
+        <v>227.35</v>
+      </c>
+      <c r="C185">
+        <v>255</v>
+      </c>
+      <c r="D185">
+        <v>255</v>
+      </c>
+      <c r="E185">
+        <v>4043.675879396973</v>
+      </c>
+      <c r="F185">
+        <v>63.5899039108959</v>
+      </c>
+      <c r="G185">
+        <v>255</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>255</v>
+      </c>
+      <c r="J185">
+        <v>252</v>
+      </c>
+      <c r="K185">
+        <v>255</v>
+      </c>
+      <c r="L185">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
+      <c r="A186">
+        <v>44237</v>
+      </c>
+      <c r="B186">
+        <v>221.185</v>
+      </c>
+      <c r="C186">
+        <v>255</v>
+      </c>
+      <c r="D186">
+        <v>255</v>
+      </c>
+      <c r="E186">
+        <v>6297.377663316583</v>
+      </c>
+      <c r="F186">
+        <v>79.35601844420235</v>
+      </c>
+      <c r="G186">
+        <v>255</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>255</v>
+      </c>
+      <c r="J186">
+        <v>255</v>
+      </c>
+      <c r="K186">
+        <v>255</v>
+      </c>
+      <c r="L186">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
+      <c r="A187">
+        <v>44539</v>
+      </c>
+      <c r="B187">
+        <v>222.695</v>
+      </c>
+      <c r="C187">
+        <v>255</v>
+      </c>
+      <c r="D187">
+        <v>255</v>
+      </c>
+      <c r="E187">
+        <v>5544.705502512582</v>
+      </c>
+      <c r="F187">
+        <v>74.46277930961604</v>
+      </c>
+      <c r="G187">
+        <v>255</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>255</v>
+      </c>
+      <c r="J187">
+        <v>255</v>
+      </c>
+      <c r="K187">
+        <v>255</v>
+      </c>
+      <c r="L187">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
+      <c r="A188">
+        <v>45530</v>
+      </c>
+      <c r="B188">
+        <v>227.65</v>
+      </c>
+      <c r="C188">
+        <v>255</v>
+      </c>
+      <c r="D188">
+        <v>255</v>
+      </c>
+      <c r="E188">
+        <v>3714.419597989936</v>
+      </c>
+      <c r="F188">
+        <v>60.94603841095774</v>
+      </c>
+      <c r="G188">
+        <v>249</v>
+      </c>
+      <c r="H188">
+        <v>6</v>
+      </c>
+      <c r="I188">
+        <v>255</v>
+      </c>
+      <c r="J188">
+        <v>255</v>
+      </c>
+      <c r="K188">
+        <v>255</v>
+      </c>
+      <c r="L188">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
+      <c r="A189">
+        <v>46729</v>
+      </c>
+      <c r="B189">
+        <v>233.645</v>
+      </c>
+      <c r="C189">
+        <v>255</v>
+      </c>
+      <c r="D189">
+        <v>255</v>
+      </c>
+      <c r="E189">
+        <v>4070.260276381925</v>
+      </c>
+      <c r="F189">
+        <v>63.79859149214758</v>
+      </c>
+      <c r="G189">
+        <v>255</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>255</v>
+      </c>
+      <c r="J189">
+        <v>255</v>
+      </c>
+      <c r="K189">
+        <v>255</v>
+      </c>
+      <c r="L189">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
+      <c r="A190">
+        <v>47693</v>
+      </c>
+      <c r="B190">
+        <v>238.465</v>
+      </c>
+      <c r="C190">
+        <v>255</v>
+      </c>
+      <c r="D190">
+        <v>255</v>
+      </c>
+      <c r="E190">
+        <v>3424.40077889449</v>
+      </c>
+      <c r="F190">
+        <v>58.51837983825671</v>
+      </c>
+      <c r="G190">
+        <v>255</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>255</v>
+      </c>
+      <c r="J190">
+        <v>255</v>
+      </c>
+      <c r="K190">
+        <v>255</v>
+      </c>
+      <c r="L190">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
+      <c r="A191">
+        <v>49136</v>
+      </c>
+      <c r="B191">
+        <v>245.68</v>
+      </c>
+      <c r="C191">
+        <v>255</v>
+      </c>
+      <c r="D191">
+        <v>255</v>
+      </c>
+      <c r="E191">
+        <v>1294.379497487442</v>
+      </c>
+      <c r="F191">
+        <v>35.9774859806441</v>
+      </c>
+      <c r="G191">
+        <v>183</v>
+      </c>
+      <c r="H191">
+        <v>72</v>
+      </c>
+      <c r="I191">
+        <v>255</v>
+      </c>
+      <c r="J191">
+        <v>255</v>
+      </c>
+      <c r="K191">
+        <v>255</v>
+      </c>
+      <c r="L191">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
+      <c r="A192">
+        <v>50225</v>
+      </c>
+      <c r="B192">
+        <v>251.125</v>
+      </c>
+      <c r="C192">
+        <v>255</v>
+      </c>
+      <c r="D192">
+        <v>255</v>
+      </c>
+      <c r="E192">
+        <v>285.6074120603015</v>
+      </c>
+      <c r="F192">
+        <v>16.89992343356329</v>
+      </c>
+      <c r="G192">
+        <v>95</v>
+      </c>
+      <c r="H192">
+        <v>160</v>
+      </c>
+      <c r="I192">
+        <v>255</v>
+      </c>
+      <c r="J192">
+        <v>255</v>
+      </c>
+      <c r="K192">
+        <v>255</v>
+      </c>
+      <c r="L192">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
+      <c r="A193">
+        <v>50890</v>
+      </c>
+      <c r="B193">
+        <v>254.45</v>
+      </c>
+      <c r="C193">
+        <v>255</v>
+      </c>
+      <c r="D193">
+        <v>255</v>
+      </c>
+      <c r="E193">
+        <v>9.123115577889445</v>
+      </c>
+      <c r="F193">
+        <v>3.020449565526537</v>
+      </c>
+      <c r="G193">
+        <v>19</v>
+      </c>
+      <c r="H193">
+        <v>236</v>
+      </c>
+      <c r="I193">
+        <v>255</v>
+      </c>
+      <c r="J193">
+        <v>255</v>
+      </c>
+      <c r="K193">
+        <v>255</v>
+      </c>
+      <c r="L193">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
+      <c r="A194">
+        <v>50993</v>
+      </c>
+      <c r="B194">
+        <v>254.965</v>
+      </c>
+      <c r="C194">
+        <v>255</v>
+      </c>
+      <c r="D194">
+        <v>255</v>
+      </c>
+      <c r="E194">
+        <v>0.03394472361809047</v>
+      </c>
+      <c r="F194">
+        <v>0.1842409390393201</v>
+      </c>
+      <c r="G194">
+        <v>1</v>
+      </c>
+      <c r="H194">
+        <v>254</v>
+      </c>
+      <c r="I194">
+        <v>255</v>
+      </c>
+      <c r="J194">
+        <v>255</v>
+      </c>
+      <c r="K194">
+        <v>255</v>
+      </c>
+      <c r="L194">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
+      <c r="A195">
+        <v>51000</v>
+      </c>
+      <c r="B195">
+        <v>255</v>
+      </c>
+      <c r="C195">
+        <v>255</v>
+      </c>
+      <c r="D195">
+        <v>255</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>255</v>
+      </c>
+      <c r="I195">
+        <v>255</v>
+      </c>
+      <c r="J195">
+        <v>255</v>
+      </c>
+      <c r="K195">
+        <v>255</v>
+      </c>
+      <c r="L195">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
+      <c r="A196">
+        <v>51000</v>
+      </c>
+      <c r="B196">
+        <v>255</v>
+      </c>
+      <c r="C196">
+        <v>255</v>
+      </c>
+      <c r="D196">
+        <v>255</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>255</v>
+      </c>
+      <c r="I196">
+        <v>255</v>
+      </c>
+      <c r="J196">
+        <v>255</v>
+      </c>
+      <c r="K196">
+        <v>255</v>
+      </c>
+      <c r="L196">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
+      <c r="A197">
+        <v>51000</v>
+      </c>
+      <c r="B197">
+        <v>255</v>
+      </c>
+      <c r="C197">
+        <v>255</v>
+      </c>
+      <c r="D197">
+        <v>255</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>255</v>
+      </c>
+      <c r="I197">
+        <v>255</v>
+      </c>
+      <c r="J197">
+        <v>255</v>
+      </c>
+      <c r="K197">
+        <v>255</v>
+      </c>
+      <c r="L197">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
+      <c r="A198">
+        <v>51000</v>
+      </c>
+      <c r="B198">
+        <v>255</v>
+      </c>
+      <c r="C198">
+        <v>255</v>
+      </c>
+      <c r="D198">
+        <v>255</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>255</v>
+      </c>
+      <c r="I198">
+        <v>255</v>
+      </c>
+      <c r="J198">
+        <v>255</v>
+      </c>
+      <c r="K198">
+        <v>255</v>
+      </c>
+      <c r="L198">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
+      <c r="A199">
+        <v>51000</v>
+      </c>
+      <c r="B199">
+        <v>255</v>
+      </c>
+      <c r="C199">
+        <v>255</v>
+      </c>
+      <c r="D199">
+        <v>255</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>255</v>
+      </c>
+      <c r="I199">
+        <v>255</v>
+      </c>
+      <c r="J199">
+        <v>255</v>
+      </c>
+      <c r="K199">
+        <v>255</v>
+      </c>
+      <c r="L199">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
+      <c r="A200">
+        <v>51000</v>
+      </c>
+      <c r="B200">
+        <v>255</v>
+      </c>
+      <c r="C200">
+        <v>255</v>
+      </c>
+      <c r="D200">
+        <v>255</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>255</v>
+      </c>
+      <c r="I200">
+        <v>255</v>
+      </c>
+      <c r="J200">
+        <v>255</v>
+      </c>
+      <c r="K200">
+        <v>255</v>
+      </c>
+      <c r="L200">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
+      <c r="A201">
+        <v>51000</v>
+      </c>
+      <c r="B201">
+        <v>255</v>
+      </c>
+      <c r="C201">
+        <v>255</v>
+      </c>
+      <c r="D201">
+        <v>255</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>255</v>
+      </c>
+      <c r="I201">
+        <v>255</v>
+      </c>
+      <c r="J201">
+        <v>255</v>
+      </c>
+      <c r="K201">
+        <v>255</v>
+      </c>
+      <c r="L201">
         <v>255</v>
       </c>
     </row>
